--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,233 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2029000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2319000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2124000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2304000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1914000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2212000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2068000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2221000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7769000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2038000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1594000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1284000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1978000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1273000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1211000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1271000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1110000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1196000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1133000</v>
       </c>
       <c r="J9" s="3">
         <v>1196000</v>
       </c>
       <c r="K9" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1196000</v>
+      </c>
+      <c r="M9" s="3">
         <v>4169000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>978000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>811000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>602000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1027000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>853000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1046000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>913000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1033000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>804000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1016000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>935000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1025000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3600000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1060000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>783000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>682000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>951000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +908,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +954,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,66 +1004,78 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>26000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-98000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>74000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>32000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1041,11 +1086,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1059,8 +1104,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1125,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1657000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2019000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1920000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2001000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1830000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1943000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1875000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1826000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6991000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1721000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1451000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1030000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1920000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F18" s="3">
         <v>300000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>204000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>303000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>84000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>269000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>193000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>395000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>778000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>317000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>143000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>254000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>58000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,96 +1245,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F20" s="3">
         <v>22000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>25000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>234000</v>
+      </c>
+      <c r="F21" s="3">
         <v>427000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>337000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>433000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>167000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>387000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>320000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>521000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1212000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>428000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>244000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>320000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>213000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,96 +1391,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>322000</v>
+        <v>98000</v>
       </c>
       <c r="E23" s="3">
-        <v>231000</v>
+        <v>128000</v>
       </c>
       <c r="F23" s="3">
         <v>322000</v>
       </c>
       <c r="G23" s="3">
+        <v>231000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>322000</v>
+      </c>
+      <c r="I23" s="3">
         <v>65000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>279000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>203000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>403000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>803000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>323000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>148000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>256000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>83000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F24" s="3">
         <v>87000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>85000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>67000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>53000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>107000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>215000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>102000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>35000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>76000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1541,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F26" s="3">
         <v>235000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>185000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>237000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>42000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>212000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>150000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>296000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>588000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>221000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>113000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>180000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>90000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F27" s="3">
         <v>223000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>178000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>230000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>38000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>203000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>143000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>288000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>562000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>211000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>107000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>175000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>88000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,40 +1691,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-8000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>36000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-164000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-164000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1620,8 +1741,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1791,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1841,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-22000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-25000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F33" s="3">
         <v>223000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>178000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>222000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>74000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>203000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>143000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>288000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>398000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>211000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>175000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>88000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1991,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F35" s="3">
         <v>223000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>178000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>222000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>74000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>203000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>143000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>288000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>398000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>211000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>175000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>88000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2120,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,140 +2140,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1355000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1296000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1247000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1266000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1334000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1261000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1318000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1059000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1477000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>892000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1074000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>885000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>611000</v>
+      </c>
+      <c r="F42" s="3">
         <v>364000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>284000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>284000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>122000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>198000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>278000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>276000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>205000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>91000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>310000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>180000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>79000</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F43" s="3">
         <v>111000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>130000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>123000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>129000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>90000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>107000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>95000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>119000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>81000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>74000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>68000</v>
       </c>
       <c r="O43" s="3">
         <v>74000</v>
       </c>
       <c r="P43" s="3">
+        <v>68000</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>74000</v>
+      </c>
+      <c r="R43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2110,175 +2301,199 @@
         <v>317000</v>
       </c>
       <c r="E44" s="3">
+        <v>380000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>317000</v>
+      </c>
+      <c r="G44" s="3">
         <v>309000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>280000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>307000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>270000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>276000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>261000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>297000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>246000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>266000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>231000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>268000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>93000</v>
+      </c>
+      <c r="F45" s="3">
         <v>109000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>118000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>133000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>128000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>154000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>171000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>171000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>122000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>159000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>150000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>169000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>120000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2045000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2259000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2256000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2137000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2067000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1952000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2046000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2093000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2121000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1802000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2054000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1692000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1722000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1426000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>332000</v>
+      </c>
+      <c r="F47" s="3">
         <v>306000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>301000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>293000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>307000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>273000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>250000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>233000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>95000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>74000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>51000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>37000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>71000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2286,87 +2501,99 @@
         <v>3399000</v>
       </c>
       <c r="E48" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3399000</v>
+      </c>
+      <c r="G48" s="3">
         <v>3525000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3636000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1615000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1605000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1657000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1755000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1719000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1652000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1617000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1627000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1647000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>348000</v>
+      </c>
+      <c r="F49" s="3">
         <v>353000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>371000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>384000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>382000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>399000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>421000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>452000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>209000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>211000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>208000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>167000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>167000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2636,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2686,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F52" s="3">
         <v>396000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>391000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>382000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>354000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>368000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>309000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>333000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>490000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>469000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>453000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>424000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>416000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2786,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6577000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6950000</v>
+      </c>
+      <c r="F54" s="3">
         <v>6710000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6725000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6762000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4610000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4691000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4730000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4894000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4287000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4460000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4021000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3977000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3727000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2860,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,69 +2880,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>623000</v>
+      </c>
+      <c r="F57" s="3">
         <v>563000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>588000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>556000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>619000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>551000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>584000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>529000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>420000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>575000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>492000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>509000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>480000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2691,202 +2958,232 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1084000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1037000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1029000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>634000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>641000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>622000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>691000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>620000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>637000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>510000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>559000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>523000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1736000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1648000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1626000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1587000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1253000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1192000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1206000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1220000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1024000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1212000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1002000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1068000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1004000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="E61" s="3">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="F61" s="3">
         <v>23000</v>
       </c>
       <c r="G61" s="3">
+        <v>24000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I61" s="3">
         <v>25000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>26000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>27000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>29000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>28000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>28000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>27000</v>
       </c>
       <c r="N61" s="3">
         <v>28000</v>
       </c>
       <c r="O61" s="3">
+        <v>27000</v>
+      </c>
+      <c r="P61" s="3">
         <v>28000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1924000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1996000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2089000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>355000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>385000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>396000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>442000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>464000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>274000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>260000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>251000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>252000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3226,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3276,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3326,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3523000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3873000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3685000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3728000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3776000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1737000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1707000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1727000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1787000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1522000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1589000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1352000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1397000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1350000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3400,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3446,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3496,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3546,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3596,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1371000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1193000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1060000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>944000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>916000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>751000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>646000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>397000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>533000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>322000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>215000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>40000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3696,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3746,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3796,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3054000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3077000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3025000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2997000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2986000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2873000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2984000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3003000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3107000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2765000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2871000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2669000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2580000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2377000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3896,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F81" s="3">
         <v>223000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>178000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>222000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>74000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>203000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>143000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>288000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>398000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>211000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>175000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>88000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,52 +4025,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105000</v>
+        <v>109000</v>
       </c>
       <c r="E83" s="3">
         <v>106000</v>
       </c>
       <c r="F83" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>106000</v>
+      </c>
+      <c r="H83" s="3">
         <v>111000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>102000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>108000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>117000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>118000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>409000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>105000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>96000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>64000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>130000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +4121,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +4171,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4221,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4271,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4321,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F89" s="3">
         <v>388000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>313000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>344000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>160000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>354000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>268000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>551000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>884000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>514000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>116000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>357000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>42000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,52 +4395,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-98000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-102000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-110000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-111000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-129000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-119000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-111000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-415000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-85000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-103000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-74000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-168000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4491,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,52 +4541,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-185000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-101000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-267000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-121000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-139000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-267000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-557000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>138000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-259000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-173000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-239000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4615,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4162,28 +4629,28 @@
         <v>-45000</v>
       </c>
       <c r="F96" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-46000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-46000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-38000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-39000</v>
       </c>
       <c r="K96" s="3">
         <v>-38000</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-39000</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-38000</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -4194,8 +4661,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4711,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4761,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,136 +4811,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-109000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-146000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-113000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-200000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-132000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-135000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-51000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-185000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-99000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-42000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>342000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-28000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-51000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="F102" s="3">
         <v>68000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-19000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-68000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>73000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-57000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>259000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>174000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>585000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-182000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>189000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>135000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1754000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2029000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2319000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2124000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2304000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1914000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2212000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2068000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2221000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7769000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2038000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1594000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1284000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1978000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1045000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1176000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1273000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1211000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1271000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1110000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1196000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1133000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1196000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4169000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>978000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>811000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>602000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1027000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E10" s="3">
         <v>709000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>853000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1046000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>913000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1033000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>804000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1016000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>935000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1025000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1060000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>783000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>682000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>951000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,75 +1027,81 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-98000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>74000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>1000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1092,8 +1115,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1774000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1657000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1935000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2019000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1920000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2001000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1830000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1943000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1875000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1826000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6991000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1721000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1451000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1030000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1920000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E18" s="3">
         <v>97000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>94000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>204000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>303000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>84000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>269000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>193000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>395000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>778000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>317000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>143000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>254000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,131 +1280,138 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>10000</v>
       </c>
       <c r="K20" s="3">
         <v>10000</v>
       </c>
       <c r="L20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E21" s="3">
         <v>207000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>234000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>427000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>337000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>433000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>167000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>387000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>320000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>521000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1212000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>428000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>244000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>320000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>213000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1397,108 +1437,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E23" s="3">
         <v>98000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>128000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>322000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>231000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>322000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>279000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>403000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>803000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>323000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>148000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>256000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>83000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E24" s="3">
         <v>32000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>87000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>46000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>107000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>215000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>102000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>76000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E26" s="3">
         <v>66000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>94000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>235000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>185000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>237000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>212000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>296000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>588000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>221000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>113000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>180000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>90000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E27" s="3">
         <v>62000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>90000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>223000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>178000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>230000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>203000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>143000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>288000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>562000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>211000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>107000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>175000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,16 +1755,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1715,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-8000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>36000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1729,11 +1790,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,108 +1914,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-10000</v>
       </c>
       <c r="K32" s="3">
         <v>-10000</v>
       </c>
       <c r="L32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E33" s="3">
         <v>62000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>90000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>223000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>178000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>222000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>74000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>203000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>288000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>398000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>211000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>175000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>88000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E35" s="3">
         <v>62000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>90000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>223000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>178000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>222000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>74000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>203000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>288000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>398000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>211000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>175000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>88000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,458 +2228,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1048000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1046000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1355000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1296000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1247000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1266000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1334000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1261000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1318000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1059000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1477000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>892000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1074000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>885000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E42" s="3">
         <v>490000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>611000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>364000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>284000</v>
       </c>
       <c r="H42" s="3">
         <v>284000</v>
       </c>
       <c r="I42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="J42" s="3">
         <v>122000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>198000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>278000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>276000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>205000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>91000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>310000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>180000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>79000</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E43" s="3">
         <v>78000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>129000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>107000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>95000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>119000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>81000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>68000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E44" s="3">
         <v>317000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>380000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>317000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>309000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>280000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>307000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>270000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>276000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>261000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>297000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>246000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>266000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>231000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>268000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E45" s="3">
         <v>112000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>93000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>109000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>133000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>128000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>154000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>171000</v>
       </c>
       <c r="L45" s="3">
         <v>171000</v>
       </c>
       <c r="M45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="N45" s="3">
         <v>122000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>159000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>150000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>169000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>120000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2303000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2045000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2259000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2256000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2137000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2067000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1952000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2046000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2093000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2121000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1802000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2054000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1692000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1722000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1426000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E47" s="3">
         <v>348000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>332000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>306000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>301000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>293000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>307000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>273000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>250000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>233000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>95000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>74000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>51000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>37000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3390000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3399000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3579000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3399000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3525000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3636000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1615000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1605000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1657000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1755000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1719000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1652000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1617000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1647000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E49" s="3">
         <v>339000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>348000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>353000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>371000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>384000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>382000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>399000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>421000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>452000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>209000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>211000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>208000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>167000</v>
       </c>
       <c r="Q49" s="3">
         <v>167000</v>
       </c>
       <c r="R49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="S49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,58 +2809,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E52" s="3">
         <v>446000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>432000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>396000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>391000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>382000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>354000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>368000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>309000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>333000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>490000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>469000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>453000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>424000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>416000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2915,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6963000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6577000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6950000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6710000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6725000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6762000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4610000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4691000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4730000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4894000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4287000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4460000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4021000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3977000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3727000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,58 +3012,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E57" s="3">
         <v>466000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>623000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>563000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>588000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>556000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>619000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>551000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>584000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>529000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>420000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>575000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>492000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>509000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>480000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2944,16 +3078,16 @@
         <v>2000</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
       </c>
       <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2964,8 +3098,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2973,217 +3107,232 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1015000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1111000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1084000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1037000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1029000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>634000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>641000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>622000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>691000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>620000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>637000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>510000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>559000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>523000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1723000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1483000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1736000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1648000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1626000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1587000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1253000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1192000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1206000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1220000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1024000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1212000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1002000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1068000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1004000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>28000</v>
       </c>
       <c r="N61" s="3">
         <v>28000</v>
       </c>
       <c r="O61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="P61" s="3">
         <v>27000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>28000</v>
       </c>
       <c r="Q61" s="3">
         <v>28000</v>
       </c>
       <c r="R61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1915000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2013000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1924000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1996000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2089000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>355000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>385000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>396000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>442000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>464000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>274000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>260000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>251000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>252000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,58 +3487,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3760000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3523000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3873000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3685000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3728000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3776000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1737000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1707000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1727000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1787000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1522000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1589000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1352000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1397000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1350000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3773,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1433000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1416000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1371000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1193000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1060000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>944000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>916000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>751000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>646000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>397000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>533000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>322000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>215000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3985,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3054000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3077000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3025000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2997000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2986000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2873000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2984000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3003000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3107000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2765000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2871000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2669000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2580000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2377000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E81" s="3">
         <v>62000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>90000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>223000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>178000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>222000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>74000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>203000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>288000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>398000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>211000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>175000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>88000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,58 +4225,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E83" s="3">
         <v>109000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>106000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>105000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>106000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>111000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>102000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>108000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>117000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>118000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>409000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>105000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>96000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>64000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>130000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E89" s="3">
         <v>60000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>140000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>388000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>313000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>344000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>160000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>354000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>268000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>551000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>884000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>514000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>116000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>357000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,58 +4617,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-87000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-125000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-102000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-110000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-111000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-129000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-119000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-415000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-103000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-168000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,58 +4774,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-763000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-357000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-185000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-101000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-267000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-121000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-267000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-557000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>138000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-259000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-173000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-239000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,13 +4850,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-45000</v>
@@ -4635,26 +4869,26 @@
         <v>-45000</v>
       </c>
       <c r="H96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="I96" s="3">
         <v>-46000</v>
       </c>
       <c r="J96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="K96" s="3">
         <v>-38000</v>
       </c>
       <c r="L96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-39000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-38000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,154 +5060,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-52000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-112000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-109000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-146000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-113000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-132000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-135000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-185000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-99000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-42000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>342000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-28000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-51000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>32000</v>
       </c>
       <c r="N101" s="3">
         <v>32000</v>
       </c>
       <c r="O101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-309000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>68000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>49000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-68000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>73000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>259000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>174000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>585000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-182000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>189000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>135000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,259 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2348000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1902000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1754000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2029000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2319000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2124000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2304000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1914000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2212000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2068000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2221000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7769000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2038000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1594000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1284000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1978000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1045000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1176000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1273000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1211000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1271000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1110000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1196000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1133000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1196000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4169000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>978000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>811000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>602000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1027000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="E10" s="3">
         <v>802000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>709000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>853000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1046000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>913000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1033000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>804000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1016000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>935000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1025000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1060000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>783000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>682000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>951000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,61 +1047,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-98000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>74000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>1000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1118,8 +1141,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1774000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1657000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1935000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2019000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1920000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2001000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1830000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1943000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1875000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1826000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6991000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1721000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1451000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1030000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1920000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>556000</v>
+      </c>
+      <c r="E18" s="3">
         <v>128000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>97000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>94000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>204000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>303000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>84000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>269000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>193000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>395000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>778000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>317000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>143000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>254000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,122 +1314,129 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E20" s="3">
         <v>54000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10000</v>
       </c>
       <c r="L20" s="3">
         <v>10000</v>
       </c>
       <c r="M20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>718000</v>
+      </c>
+      <c r="E21" s="3">
         <v>287000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>207000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>234000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>427000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>337000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>433000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>167000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>387000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>320000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>521000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1212000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>428000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>244000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>320000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>213000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1413,8 +1453,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1440,114 +1480,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E23" s="3">
         <v>181000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>98000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>128000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>322000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>231000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>322000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>279000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>203000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>403000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>803000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>323000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>148000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>256000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E24" s="3">
         <v>45000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>87000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>46000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>85000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>107000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>215000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>102000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>76000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E26" s="3">
         <v>136000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>94000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>235000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>185000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>237000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>212000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>150000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>296000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>588000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>221000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>113000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>180000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>90000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E27" s="3">
         <v>132000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>90000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>223000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>178000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>230000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>203000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>143000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>288000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>562000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>211000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>107000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>175000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1769,8 +1830,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1779,13 +1840,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-8000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>36000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1793,11 +1854,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,114 +1984,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-54000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-10000</v>
       </c>
       <c r="L32" s="3">
         <v>-10000</v>
       </c>
       <c r="M32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E33" s="3">
         <v>132000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>62000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>90000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>223000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>178000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>222000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>74000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>203000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>143000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>288000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>398000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>211000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>107000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>175000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>88000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E35" s="3">
         <v>132000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>62000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>90000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>223000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>178000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>222000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>74000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>203000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>143000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>288000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>398000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>211000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>107000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>175000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>88000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,167 +2315,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1782000</v>
+      </c>
+      <c r="E41" s="3">
         <v>674000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1048000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1046000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1355000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1296000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1247000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1266000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1334000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1261000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1318000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1059000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1477000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>892000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1074000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>885000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2424000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1034000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>490000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>611000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>364000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>284000</v>
       </c>
       <c r="I42" s="3">
         <v>284000</v>
       </c>
       <c r="J42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K42" s="3">
         <v>122000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>198000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>278000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>276000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>205000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>91000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>310000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>180000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>79000</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E43" s="3">
         <v>83000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>78000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>129000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>111000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>107000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>95000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>119000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>81000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>68000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2397,317 +2493,335 @@
         <v>346000</v>
       </c>
       <c r="E44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="F44" s="3">
         <v>317000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>380000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>317000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>309000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>280000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>307000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>270000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>276000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>261000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>297000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>246000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>266000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>231000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>268000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E45" s="3">
         <v>166000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>93000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>109000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>133000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>128000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>154000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>171000</v>
       </c>
       <c r="M45" s="3">
         <v>171000</v>
       </c>
       <c r="N45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="O45" s="3">
         <v>122000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>159000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>150000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>169000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>120000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2303000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2045000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2259000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2256000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2137000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2067000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1952000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2046000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2093000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2121000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1802000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2054000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1692000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1722000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1426000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E47" s="3">
         <v>305000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>348000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>332000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>306000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>301000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>293000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>307000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>273000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>250000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>233000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>74000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>51000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>37000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3676000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3390000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3399000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3579000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3399000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3525000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3636000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1615000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1605000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1657000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1755000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1719000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1652000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1617000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1627000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1647000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E49" s="3">
         <v>492000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>339000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>348000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>353000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>371000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>384000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>382000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>399000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>421000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>452000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>209000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>211000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>208000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>167000</v>
       </c>
       <c r="R49" s="3">
         <v>167000</v>
       </c>
       <c r="S49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="T49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,61 +2929,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E52" s="3">
         <v>473000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>446000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>432000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>396000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>391000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>382000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>354000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>368000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>309000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>333000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>490000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>469000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>453000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>424000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>416000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3041,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10386000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6963000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6577000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6950000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6710000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6725000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6762000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4610000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4691000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4730000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4894000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4287000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4460000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4021000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3977000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3727000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,61 +3143,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E57" s="3">
         <v>566000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>466000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>623000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>563000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>588000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>556000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>619000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>551000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>584000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>529000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>420000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>575000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>492000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>509000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>480000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3081,16 +3215,16 @@
         <v>2000</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>2000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3101,8 +3235,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3110,229 +3244,244 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1155000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1015000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1111000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1084000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1037000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1029000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>634000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>641000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>622000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>691000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>620000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>637000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>510000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>559000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>523000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2007000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1723000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1483000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1736000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1648000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1626000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1587000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1253000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1192000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1206000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1220000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1024000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1212000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1068000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1004000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>28000</v>
       </c>
       <c r="O61" s="3">
         <v>28000</v>
       </c>
       <c r="P61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>27000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>28000</v>
       </c>
       <c r="R61" s="3">
         <v>28000</v>
       </c>
       <c r="S61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2147000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1929000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1915000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2013000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1924000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1996000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2089000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>355000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>385000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>396000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>442000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>464000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>274000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>260000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>251000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>252000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3645,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4424000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3760000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3523000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3873000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3685000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3728000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3776000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1737000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1707000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1727000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1787000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1522000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1589000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1352000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1397000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1350000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +3947,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1565000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1433000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1416000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1371000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1193000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1060000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>944000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>916000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>751000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>646000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>397000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>533000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>322000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>215000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4171,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5962000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3203000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3054000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3077000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3025000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2997000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2986000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2873000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2984000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3003000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3107000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2765000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2871000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2669000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2580000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2377000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E81" s="3">
         <v>132000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>62000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>90000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>223000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>178000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>222000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>74000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>203000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>143000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>288000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>398000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>211000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>107000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>175000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>88000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,61 +4424,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E83" s="3">
         <v>105000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>109000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>106000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>105000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>106000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>111000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>102000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>108000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>117000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>118000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>409000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>105000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>96000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>64000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>130000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E89" s="3">
         <v>392000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>140000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>388000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>313000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>344000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>160000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>354000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>268000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>551000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>884000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>514000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>116000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>357000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,61 +4838,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-98000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-87000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-125000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-102000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-110000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-111000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-129000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-119000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-111000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-415000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-85000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-74000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-168000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,61 +5004,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1572000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-763000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-357000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-185000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-101000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-267000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-121000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-267000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-557000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>138000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-259000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-173000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-239000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4860,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-45000</v>
@@ -4872,26 +5106,26 @@
         <v>-45000</v>
       </c>
       <c r="I96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="J96" s="3">
         <v>-46000</v>
       </c>
       <c r="K96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="L96" s="3">
         <v>-38000</v>
       </c>
       <c r="M96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-39000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-38000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,163 +5306,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-52000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-112000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-109000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-146000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-113000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-132000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-135000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-185000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-99000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>342000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-26000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-28000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-51000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>32000</v>
       </c>
       <c r="O101" s="3">
         <v>32000</v>
       </c>
       <c r="P101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-376000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-309000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>68000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>49000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-68000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-57000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>259000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>174000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>585000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-182000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>189000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>135000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,271 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2259000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2348000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1902000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1754000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2029000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2319000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2124000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2304000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1914000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2212000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2068000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2221000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7769000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2038000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1594000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1284000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1978000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1282000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1045000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1176000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1273000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1211000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1271000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1110000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1196000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1133000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1196000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4169000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>978000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>811000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>602000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1027000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1066000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>802000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>709000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>853000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1046000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>913000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1033000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>804000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1016000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>935000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1025000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>783000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>682000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>951000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,87 +1066,93 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-238000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-98000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>74000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>1000</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1144,8 +1166,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1162,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2079000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1792000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1774000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1657000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1935000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2019000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1920000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2001000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1830000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1943000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1875000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1826000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6991000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1721000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1451000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1030000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1920000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E18" s="3">
         <v>556000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>128000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>97000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>94000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>204000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>303000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>84000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>269000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>193000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>395000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>778000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>317000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>143000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>254000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>58000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,120 +1347,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E20" s="3">
         <v>49000</v>
       </c>
-      <c r="E20" s="3">
-        <v>54000</v>
-      </c>
       <c r="F20" s="3">
+        <v>53000</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>10000</v>
       </c>
       <c r="M20" s="3">
         <v>10000</v>
       </c>
       <c r="N20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E21" s="3">
         <v>718000</v>
       </c>
-      <c r="E21" s="3">
-        <v>287000</v>
-      </c>
       <c r="F21" s="3">
+        <v>286000</v>
+      </c>
+      <c r="G21" s="3">
         <v>207000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>234000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>427000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>337000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>433000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>387000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>320000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>521000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1212000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>428000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>244000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>320000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>213000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,28 +1475,28 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1483,120 +1522,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E23" s="3">
         <v>605000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>181000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>98000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>128000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>322000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>231000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>322000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>279000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>203000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>403000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>803000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>323000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>148000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>256000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E24" s="3">
         <v>155000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>45000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>87000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>85000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>107000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>215000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>102000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>76000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E26" s="3">
         <v>450000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>136000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>94000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>235000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>185000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>237000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>212000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>150000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>296000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>588000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>221000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>113000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>180000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>90000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E27" s="3">
         <v>439000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>132000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>90000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>223000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>178000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>230000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>203000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>143000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>288000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>562000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>211000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>175000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1833,8 +1893,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1843,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-8000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>36000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1857,11 +1917,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1875,8 +1935,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-49000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-54000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-10000</v>
       </c>
       <c r="M32" s="3">
         <v>-10000</v>
       </c>
       <c r="N32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E33" s="3">
         <v>439000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>132000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>62000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>90000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>223000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>178000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>222000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>203000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>143000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>288000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>398000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>211000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>175000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>88000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E35" s="3">
         <v>439000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>132000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>62000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>90000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>223000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>178000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>222000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>203000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>143000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>288000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>398000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>211000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>175000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>88000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2294,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,512 +2401,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1782000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>674000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1048000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1046000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1355000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1296000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1247000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1266000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1334000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1261000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1318000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1059000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1477000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>892000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1074000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>885000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2424000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1034000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>490000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>611000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>364000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>284000</v>
       </c>
       <c r="J42" s="3">
         <v>284000</v>
       </c>
       <c r="K42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="L42" s="3">
         <v>122000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>198000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>278000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>276000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>205000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>91000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>310000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>180000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>79000</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E43" s="3">
         <v>86000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>83000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>78000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>111000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>130000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>123000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>90000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>107000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>95000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>119000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>81000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>68000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>346000</v>
+        <v>398000</v>
       </c>
       <c r="E44" s="3">
         <v>346000</v>
       </c>
       <c r="F44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="G44" s="3">
         <v>317000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>380000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>317000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>309000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>280000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>307000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>270000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>276000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>261000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>297000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>246000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>266000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>231000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>268000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E45" s="3">
         <v>162000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>166000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>109000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>133000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>128000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>154000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>171000</v>
       </c>
       <c r="N45" s="3">
         <v>171000</v>
       </c>
       <c r="O45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="P45" s="3">
         <v>122000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>159000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>150000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>169000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>120000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4936000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4800000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2303000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2045000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2259000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2256000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2137000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2067000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1952000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2046000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2093000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2121000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1802000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2054000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1692000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1722000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1426000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E47" s="3">
         <v>323000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>305000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>348000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>332000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>306000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>301000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>293000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>307000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>273000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>250000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>233000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>95000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>74000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>51000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>37000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3929000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3676000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3390000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3399000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3579000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3399000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3525000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3636000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1615000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1605000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1657000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1755000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1719000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1652000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1617000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1627000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1647000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1078000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1046000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>492000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>339000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>348000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>353000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>371000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>384000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>382000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>399000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>421000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>452000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>209000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>211000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>208000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>167000</v>
       </c>
       <c r="S49" s="3">
         <v>167000</v>
       </c>
       <c r="T49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="U49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E52" s="3">
         <v>541000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>473000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>446000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>432000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>396000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>391000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>382000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>354000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>368000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>309000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>333000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>490000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>469000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>453000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>424000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>416000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10875000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10386000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6963000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6577000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6950000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6710000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6725000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6762000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4610000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4691000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4730000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4894000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4287000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4460000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4021000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3977000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3727000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,64 +3273,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E57" s="3">
         <v>634000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>566000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>466000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>623000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>563000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>588000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>556000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>619000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>551000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>584000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>529000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>420000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>575000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>492000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>509000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>480000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3218,16 +3351,16 @@
         <v>2000</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3238,8 +3371,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3247,241 +3380,256 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1371000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1155000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1015000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1111000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1084000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1037000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1029000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>634000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>641000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>622000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>691000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>620000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>637000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>510000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>559000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>523000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2067000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2007000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1723000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1483000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1736000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1648000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1626000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1587000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1253000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1192000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1206000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1220000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1024000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1002000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1068000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1004000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>28000</v>
       </c>
       <c r="P61" s="3">
         <v>28000</v>
       </c>
       <c r="Q61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R61" s="3">
         <v>27000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>28000</v>
       </c>
       <c r="S61" s="3">
         <v>28000</v>
       </c>
       <c r="T61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2147000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1929000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1915000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2013000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1924000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1996000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2089000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>355000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>385000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>396000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>442000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>464000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>274000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>260000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>251000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>252000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4669000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4424000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3760000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3523000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3873000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3685000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3728000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3776000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1737000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1707000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1727000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1787000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1522000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1589000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1352000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1397000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1350000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3894,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2105000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2004000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1565000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1433000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1416000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1371000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1193000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1060000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>944000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>916000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>751000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>646000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>397000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>533000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>322000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>215000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>40000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6206000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5962000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3203000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3054000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3077000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3025000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2997000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2986000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2873000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2984000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3003000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3107000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2765000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2871000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2669000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2580000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2377000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E81" s="3">
         <v>439000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>132000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>62000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>90000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>223000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>178000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>222000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>203000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>143000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>288000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>398000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>211000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>175000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>88000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E83" s="3">
         <v>113000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>105000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>109000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>106000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>105000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>106000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>111000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>102000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>108000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>117000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>118000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>409000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>105000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>96000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>64000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>130000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E89" s="3">
         <v>447000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>392000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>60000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>140000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>388000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>313000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>344000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>354000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>268000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>551000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>884000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>514000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>116000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>357000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-98000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-87000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-125000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-102000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-110000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-111000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-129000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-119000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-415000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-85000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-103000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-74000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-168000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-776000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-763000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-357000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-185000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-101000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-267000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-121000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-267000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-557000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>138000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-259000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-173000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-239000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,19 +5317,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-45000</v>
@@ -5109,26 +5342,26 @@
         <v>-45000</v>
       </c>
       <c r="J96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="K96" s="3">
         <v>-46000</v>
       </c>
       <c r="L96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="M96" s="3">
         <v>-38000</v>
       </c>
       <c r="N96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-39000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-38000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5141,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,64 +5551,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2203000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-52000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-112000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-109000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-146000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-113000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-132000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-135000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-185000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-42000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>342000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5374,107 +5622,113 @@
         <v>23000</v>
       </c>
       <c r="E101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-51000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>32000</v>
       </c>
       <c r="P101" s="3">
         <v>32000</v>
       </c>
       <c r="Q101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-624000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1101000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-376000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-309000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>68000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-68000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-57000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>259000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>174000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>585000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-182000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>189000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>135000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2557000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2259000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2348000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1902000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1754000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2029000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2319000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2124000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2304000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1914000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2212000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2068000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2221000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7769000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2038000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1594000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1284000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1978000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1278000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1282000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1045000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1176000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1273000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1211000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1271000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1110000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1196000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1133000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1196000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4169000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>978000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>811000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>602000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1027000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1140000</v>
+      </c>
+      <c r="E10" s="3">
         <v>981000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1066000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>802000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>709000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>853000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1046000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>913000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1033000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>804000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1016000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>935000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1025000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3600000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1060000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>783000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>682000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>951000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,67 +1086,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>25000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-238000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-98000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>74000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>32000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,25 +1160,25 @@
         <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>1000</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1169,8 +1192,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2206000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2079000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1792000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1774000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1657000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1935000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2019000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1920000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2001000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1830000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1943000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1875000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1826000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6991000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1721000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1451000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1030000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1920000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E18" s="3">
         <v>180000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>556000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>128000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>97000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>94000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>204000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>303000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>269000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>193000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>395000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>778000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>317000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>143000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>254000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,126 +1381,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>44000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>49000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>53000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10000</v>
       </c>
       <c r="N20" s="3">
         <v>10000</v>
       </c>
       <c r="O20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E21" s="3">
         <v>347000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>718000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>286000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>207000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>234000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>427000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>337000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>433000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>167000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>387000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>320000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>521000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>428000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>244000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>320000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>213000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1492,14 +1532,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1525,126 +1565,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E23" s="3">
         <v>224000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>605000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>181000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>98000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>128000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>322000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>231000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>322000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>279000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>203000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>403000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>803000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>323000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>148000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>256000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E24" s="3">
         <v>63000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>155000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>45000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>87000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>53000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>107000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>215000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>102000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>76000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E26" s="3">
         <v>161000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>450000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>66000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>94000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>235000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>185000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>237000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>212000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>150000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>296000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>588000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>221000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>113000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>180000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>90000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E27" s="3">
         <v>151000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>439000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>132000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>90000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>223000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>178000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>230000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>203000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>143000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>288000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>562000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>211000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>175000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1896,8 +1957,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1906,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-8000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>36000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1920,11 +1981,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-44000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-49000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-53000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-10000</v>
       </c>
       <c r="N32" s="3">
         <v>-10000</v>
       </c>
       <c r="O32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E33" s="3">
         <v>151000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>439000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>132000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>90000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>223000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>178000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>222000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>203000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>143000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>288000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>398000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>211000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>175000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>88000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E35" s="3">
         <v>151000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>439000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>132000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>90000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>223000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>178000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>222000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>203000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>143000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>288000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>398000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>211000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>175000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>88000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,539 +2488,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1158000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1782000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>674000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1048000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1046000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1355000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1296000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1247000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1266000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1334000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1261000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1318000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1059000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1477000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>892000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1074000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>885000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3026000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3105000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2424000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1034000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>490000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>611000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>364000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>284000</v>
       </c>
       <c r="K42" s="3">
         <v>284000</v>
       </c>
       <c r="L42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="M42" s="3">
         <v>122000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>198000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>278000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>276000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>205000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>91000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>310000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>180000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>79000</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E43" s="3">
         <v>146000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>86000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>83000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>78000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>111000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>130000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>123000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>90000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>107000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>95000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>81000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>68000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>74000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E44" s="3">
         <v>398000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>346000</v>
       </c>
       <c r="F44" s="3">
         <v>346000</v>
       </c>
       <c r="G44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="H44" s="3">
         <v>317000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>380000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>317000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>309000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>280000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>307000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>270000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>276000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>261000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>297000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>246000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>266000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>231000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>268000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E45" s="3">
         <v>129000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>162000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>166000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>112000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>109000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>133000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>128000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>154000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>171000</v>
       </c>
       <c r="O45" s="3">
         <v>171000</v>
       </c>
       <c r="P45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>122000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>159000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>150000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>169000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>120000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4936000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2303000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2045000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2259000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2256000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2137000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2067000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1952000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2046000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2093000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2121000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1802000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2054000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1692000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1722000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1426000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E47" s="3">
         <v>355000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>323000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>305000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>348000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>332000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>306000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>301000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>293000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>307000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>273000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>250000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>233000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>95000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>74000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>51000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>37000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>71000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3889000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3929000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3676000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3390000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3399000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3579000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3399000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3525000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3636000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1615000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1605000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1657000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1755000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1719000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1652000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1617000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1627000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1647000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1078000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1046000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>492000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>339000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>348000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>353000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>371000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>384000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>382000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>399000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>421000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>452000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>209000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>211000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>208000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>167000</v>
       </c>
       <c r="T49" s="3">
         <v>167000</v>
       </c>
       <c r="U49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="V49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E52" s="3">
         <v>577000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>541000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>473000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>446000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>432000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>396000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>391000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>382000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>354000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>368000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>309000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>333000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>490000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>469000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>453000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>424000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>416000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10837000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10875000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10386000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6963000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6577000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6950000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6710000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6725000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6762000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4610000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4691000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4730000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4894000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4287000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4460000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4021000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3977000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3727000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,67 +3404,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E57" s="3">
         <v>708000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>634000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>566000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>466000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>623000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>563000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>588000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>556000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>619000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>551000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>584000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>529000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>420000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>575000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>492000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>509000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>480000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3354,16 +3488,16 @@
         <v>2000</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
       </c>
       <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>2000</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3374,8 +3508,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3383,135 +3517,144 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1357000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1371000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1155000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1015000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1111000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1084000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1037000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1029000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>634000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>641000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>622000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>691000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>620000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>637000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>510000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>559000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>523000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1922000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2067000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2007000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1723000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1483000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1736000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1648000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1626000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1587000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1253000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1192000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1206000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1220000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1212000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1002000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1068000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1004000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3519,117 +3662,123 @@
         <v>28000</v>
       </c>
       <c r="E61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F61" s="3">
         <v>25000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>28000</v>
       </c>
       <c r="Q61" s="3">
         <v>28000</v>
       </c>
       <c r="R61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S61" s="3">
         <v>27000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>28000</v>
       </c>
       <c r="T61" s="3">
         <v>28000</v>
       </c>
       <c r="U61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2274000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2309000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2147000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1929000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1915000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2013000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1924000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1996000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2089000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>355000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>385000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>396000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>442000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>464000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>274000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>260000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>251000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>252000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4462000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4669000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4424000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3760000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3523000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3873000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3685000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3728000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3776000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1737000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1707000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1727000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1787000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1589000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1352000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1397000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1350000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2285000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2105000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2004000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1565000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1433000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1416000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1371000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1193000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1060000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>944000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>916000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>751000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>646000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>397000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>533000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>322000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>215000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>40000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6375000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6206000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5962000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3203000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3054000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3077000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3025000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2997000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2986000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2873000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2984000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3003000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3107000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2765000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2871000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2669000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2580000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2377000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E81" s="3">
         <v>151000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>439000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>132000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>90000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>223000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>178000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>222000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>203000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>143000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>288000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>398000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>211000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>175000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>88000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E83" s="3">
         <v>123000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>105000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>109000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>106000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>105000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>106000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>111000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>102000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>108000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>117000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>118000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>409000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>105000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>96000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>64000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>130000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E89" s="3">
         <v>215000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>447000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>392000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>60000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>388000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>313000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>344000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>160000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>354000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>268000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>551000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>884000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>514000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>116000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>357000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>42000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-135000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-87000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-125000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-98000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-102000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-110000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-129000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-119000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-111000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-415000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-85000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-103000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-74000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-168000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-776000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-763000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-357000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-185000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-101000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-267000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-121000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-139000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-267000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-557000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>138000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-259000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-173000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-239000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5327,13 +5561,13 @@
         <v>-50000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-45000</v>
@@ -5345,26 +5579,26 @@
         <v>-45000</v>
       </c>
       <c r="K96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="L96" s="3">
         <v>-46000</v>
       </c>
       <c r="M96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="N96" s="3">
         <v>-38000</v>
       </c>
       <c r="O96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-39000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5797,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-86000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2203000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-112000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-109000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-146000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-113000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-132000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-135000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-99000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-42000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>342000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23000</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
         <v>23000</v>
       </c>
       <c r="F101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-51000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>32000</v>
       </c>
       <c r="Q101" s="3">
         <v>32000</v>
       </c>
       <c r="R101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-624000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1101000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-376000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-309000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>68000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-68000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-57000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>259000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>174000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>585000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-182000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>189000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>135000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2451000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2557000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2259000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2348000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1902000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1754000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2029000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2319000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2124000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2304000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1914000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2212000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2068000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2221000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7769000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2038000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1594000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1284000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1978000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1417000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1278000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1282000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1045000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1176000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1273000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1211000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1271000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1110000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1196000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1133000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4169000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>978000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>811000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>602000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1027000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1140000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>981000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1066000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>802000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>709000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>853000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1046000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>913000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1033000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>804000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1016000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>935000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1025000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3600000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1060000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>783000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>682000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>951000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,99 +1106,105 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-238000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>74000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>32000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1000</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1218,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2208000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2206000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2079000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1792000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1774000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1657000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1935000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2019000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1920000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2001000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1830000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1943000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1875000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1826000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6991000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1721000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1451000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1030000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1920000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E18" s="3">
         <v>351000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>180000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>556000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>128000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>97000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>94000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>204000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>303000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>84000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>269000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>193000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>395000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>778000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>317000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>143000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>254000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,167 +1415,174 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>44000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>49000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>53000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>10000</v>
       </c>
       <c r="O20" s="3">
         <v>10000</v>
       </c>
       <c r="P20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E21" s="3">
         <v>473000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>347000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>718000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>286000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>207000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>234000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>427000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>337000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>433000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>167000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>387000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>320000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>521000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1212000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>428000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>244000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>320000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>213000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1568,132 +1608,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E23" s="3">
         <v>345000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>224000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>605000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>181000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>98000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>128000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>322000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>231000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>322000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>279000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>203000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>403000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>803000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>323000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>148000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>256000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>83000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E24" s="3">
         <v>102000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>63000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>155000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>87000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>53000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>107000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>215000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>102000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>76000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E26" s="3">
         <v>243000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>161000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>450000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>136000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>66000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>94000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>235000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>237000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>212000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>150000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>296000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>588000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>221000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>113000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>180000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>90000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E27" s="3">
         <v>230000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>151000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>439000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>132000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>90000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>223000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>178000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>230000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>203000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>143000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>288000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>562000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>211000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>107000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>175000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1960,8 +2021,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1970,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-8000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>36000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1984,11 +2045,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2193,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-44000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-49000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-53000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-10000</v>
       </c>
       <c r="O32" s="3">
         <v>-10000</v>
       </c>
       <c r="P32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E33" s="3">
         <v>230000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>151000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>439000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>132000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>90000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>223000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>178000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>222000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>203000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>143000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>288000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>398000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>211000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>175000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>88000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E35" s="3">
         <v>230000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>151000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>439000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>132000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>90000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>223000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>178000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>222000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>203000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>143000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>288000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>398000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>211000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>175000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>88000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,566 +2575,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1084000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1158000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1782000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>674000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1048000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1046000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1355000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1296000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1247000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1266000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1334000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1261000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1318000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1059000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1477000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>892000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1074000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>885000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3139000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3026000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3105000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2424000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1034000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>490000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>611000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>364000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>284000</v>
       </c>
       <c r="L42" s="3">
         <v>284000</v>
       </c>
       <c r="M42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="N42" s="3">
         <v>122000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>198000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>278000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>276000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>205000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>91000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>310000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>180000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>79000</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E43" s="3">
         <v>125000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>146000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>86000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>83000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>78000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>111000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>90000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>107000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>95000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>119000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>81000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>68000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>74000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E44" s="3">
         <v>345000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>398000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>346000</v>
       </c>
       <c r="G44" s="3">
         <v>346000</v>
       </c>
       <c r="H44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="I44" s="3">
         <v>317000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>380000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>317000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>309000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>280000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>307000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>270000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>276000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>261000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>297000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>246000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>266000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>231000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>268000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E45" s="3">
         <v>176000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>129000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>162000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>166000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>112000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>93000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>109000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>133000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>128000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>154000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>171000</v>
       </c>
       <c r="P45" s="3">
         <v>171000</v>
       </c>
       <c r="Q45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="R45" s="3">
         <v>122000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>159000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>150000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>169000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>120000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5040000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4756000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4936000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4800000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2303000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2045000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2259000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2256000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2137000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2067000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1952000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2046000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2093000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2121000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1802000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2054000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1692000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1722000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1426000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319000</v>
+        <v>834000</v>
       </c>
       <c r="E47" s="3">
+        <v>811000</v>
+      </c>
+      <c r="F47" s="3">
         <v>355000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>323000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>305000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>348000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>332000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>306000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>301000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>293000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>307000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>273000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>250000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>233000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>95000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>74000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>51000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>37000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>71000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4027000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3889000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3929000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3676000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3390000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3399000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3579000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3399000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3525000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3636000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1615000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1605000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1657000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1755000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1719000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1652000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1617000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1627000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1647000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1063000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1078000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1046000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>492000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>339000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>348000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>353000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>371000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>384000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>382000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>399000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>421000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>452000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>209000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>211000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>208000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>167000</v>
       </c>
       <c r="U49" s="3">
         <v>167000</v>
       </c>
       <c r="V49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="W49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,70 +3288,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>810000</v>
+        <v>334000</v>
       </c>
       <c r="E52" s="3">
+        <v>318000</v>
+      </c>
+      <c r="F52" s="3">
         <v>577000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>541000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>473000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>446000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>432000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>396000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>391000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>382000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>354000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>368000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>309000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>333000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>490000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>469000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>453000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>424000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>416000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3418,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11304000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10837000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10875000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10386000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6963000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6577000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6950000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6710000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6725000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6762000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4610000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4691000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4730000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4894000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4287000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4460000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4021000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3977000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3727000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,70 +3535,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>712000</v>
+      </c>
+      <c r="E57" s="3">
         <v>571000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>708000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>634000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>566000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>466000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>623000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>563000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>588000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>556000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>619000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>551000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>584000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>529000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>420000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>575000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>492000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>509000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>480000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3491,16 +3625,16 @@
         <v>2000</v>
       </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3511,8 +3645,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3520,141 +3654,150 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1349000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1357000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1371000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1155000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1015000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1111000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1084000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1037000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1029000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>634000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>641000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>622000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>691000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>620000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>637000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>510000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>559000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>523000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2116000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1922000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2067000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2007000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1723000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1483000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1736000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1648000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1626000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1587000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1253000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1192000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1206000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1024000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1212000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1002000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1068000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1004000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3665,120 +3808,126 @@
         <v>28000</v>
       </c>
       <c r="F61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G61" s="3">
         <v>25000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>28000</v>
       </c>
       <c r="R61" s="3">
         <v>28000</v>
       </c>
       <c r="S61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T61" s="3">
         <v>27000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>28000</v>
       </c>
       <c r="U61" s="3">
         <v>28000</v>
       </c>
       <c r="V61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="W61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2332000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2274000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2309000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2147000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1929000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1915000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2013000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1924000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1996000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2089000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>355000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>385000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>396000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>442000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>464000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>274000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>260000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>251000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>252000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4118,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4729000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4462000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4669000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4424000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3760000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3523000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3873000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3685000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3728000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3776000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1737000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1707000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1727000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1787000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1522000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1589000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1352000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1397000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1350000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4468,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2415000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2285000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2105000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2004000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1565000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1433000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1416000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1371000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1193000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1060000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>944000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>916000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>751000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>646000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>397000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>533000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>322000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>215000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4728,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6575000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6375000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6206000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5962000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3203000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3054000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3077000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3025000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2997000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2986000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2873000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2984000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3003000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3107000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2765000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2871000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2669000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2580000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2377000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E81" s="3">
         <v>230000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>151000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>439000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>132000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>90000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>223000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>178000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>222000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>203000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>143000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>288000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>398000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>211000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>175000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>88000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5020,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E83" s="3">
         <v>128000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>123000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>105000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>109000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>106000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>105000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>111000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>102000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>108000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>117000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>118000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>409000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>105000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>96000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>64000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>130000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E89" s="3">
         <v>331000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>215000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>447000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>392000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>60000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>388000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>313000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>344000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>160000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>354000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>268000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>551000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>884000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>514000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>116000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>357000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>42000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5500,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-165000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-135000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-99000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-87000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-125000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-98000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-102000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-110000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-111000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-129000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-119000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-415000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-85000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-103000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-74000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-168000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-347000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-776000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-763000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-357000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-185000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-267000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-121000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-139000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-557000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>138000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-259000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-173000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-239000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,25 +5785,26 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="E96" s="3">
         <v>-50000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-45000</v>
@@ -5582,26 +5816,26 @@
         <v>-45000</v>
       </c>
       <c r="L96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="M96" s="3">
         <v>-46000</v>
       </c>
       <c r="N96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="O96" s="3">
         <v>-38000</v>
       </c>
       <c r="P96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-38000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,190 +6043,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-86000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2203000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-112000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-109000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-146000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-113000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-132000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-135000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-185000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-99000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-42000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>342000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>23000</v>
       </c>
       <c r="F101" s="3">
         <v>23000</v>
       </c>
       <c r="G101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-51000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>32000</v>
       </c>
       <c r="R101" s="3">
         <v>32000</v>
       </c>
       <c r="S101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-74000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-624000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1101000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-376000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-309000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>68000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-68000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>73000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>259000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>174000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>585000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-182000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>189000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>135000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,310 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2554000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2451000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2557000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2259000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2348000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1902000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1754000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2029000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2319000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2124000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2304000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1914000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2212000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2068000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2221000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7769000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2038000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1594000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1284000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1978000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1386000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1417000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1278000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1282000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1045000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1176000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1273000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1211000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1271000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1110000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1196000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1133000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1196000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4169000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>978000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>811000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>602000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1027000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1065000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1140000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>981000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1066000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>802000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>709000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>853000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1046000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>913000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1033000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>804000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1016000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>935000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1025000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3600000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1060000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>783000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>682000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>951000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +992,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,105 +1126,111 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-238000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-98000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>74000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>32000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>1000</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1221,8 +1244,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1239,8 +1262,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2366000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2208000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2206000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2079000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1792000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1774000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1657000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1935000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2019000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1920000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2001000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1830000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1943000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1875000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1826000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6991000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1721000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1451000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1030000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1920000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E18" s="3">
         <v>243000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>351000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>180000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>556000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>128000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>97000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>94000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>204000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>303000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>269000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>193000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>395000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>778000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>317000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>143000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>254000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>58000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,146 +1449,153 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E20" s="3">
         <v>15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>44000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>49000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>53000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>10000</v>
       </c>
       <c r="P20" s="3">
         <v>10000</v>
       </c>
       <c r="Q20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R20" s="3">
         <v>8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E21" s="3">
         <v>382000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>473000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>347000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>718000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>286000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>207000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>234000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>427000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>337000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>433000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>167000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>387000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>320000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>521000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1212000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>428000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>244000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>320000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>213000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1572,20 +1612,20 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1611,138 +1651,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E23" s="3">
         <v>257000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>345000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>224000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>605000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>181000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>98000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>128000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>322000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>231000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>322000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>65000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>279000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>203000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>403000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>803000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>323000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>148000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>256000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>83000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E24" s="3">
         <v>64000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>102000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>63000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>155000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>45000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>87000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>53000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>107000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>215000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>102000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>76000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1855,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E26" s="3">
         <v>193000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>243000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>161000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>450000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>136000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>66000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>94000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>235000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>237000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>212000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>150000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>296000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>588000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>221000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>113000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>180000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>90000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E27" s="3">
         <v>181000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>230000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>151000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>439000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>132000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>90000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>223000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>178000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>230000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>203000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>143000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>288000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>562000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>211000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>107000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>175000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2024,8 +2085,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2034,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>36000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2048,11 +2109,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2066,8 +2127,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,138 +2263,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-44000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-49000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-53000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-10000</v>
       </c>
       <c r="P32" s="3">
         <v>-10000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>181000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>230000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>151000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>439000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>132000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>62000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>90000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>223000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>178000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>222000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>203000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>143000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>288000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>398000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>211000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>107000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>175000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>88000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2467,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>181000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>230000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>151000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>439000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>132000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>62000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>90000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>223000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>178000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>222000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>203000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>143000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>288000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>398000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>211000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>107000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>175000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>88000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,593 +2662,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1209000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1084000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1158000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1782000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>674000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1048000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1046000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1355000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1296000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1247000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1266000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1334000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1318000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1059000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1477000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>892000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1074000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>885000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3099000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3139000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3026000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3105000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2424000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1034000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>490000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>611000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>364000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>284000</v>
       </c>
       <c r="M42" s="3">
         <v>284000</v>
       </c>
       <c r="N42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="O42" s="3">
         <v>122000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>198000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>278000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>276000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>205000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>91000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>310000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>180000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>79000</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E43" s="3">
         <v>137000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>125000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>146000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>83000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>78000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>111000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>123000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>90000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>107000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>95000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>119000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>81000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>74000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>68000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>74000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E44" s="3">
         <v>380000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>345000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>398000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>346000</v>
       </c>
       <c r="H44" s="3">
         <v>346000</v>
       </c>
       <c r="I44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="J44" s="3">
         <v>317000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>380000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>317000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>309000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>280000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>307000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>270000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>276000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>261000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>297000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>246000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>266000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>231000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>268000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E45" s="3">
         <v>175000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>176000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>129000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>162000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>166000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>112000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>93000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>133000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>128000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>154000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>171000</v>
       </c>
       <c r="Q45" s="3">
         <v>171000</v>
       </c>
       <c r="R45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="S45" s="3">
         <v>122000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>159000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>150000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>169000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>120000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5082000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5040000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4756000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4936000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4800000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2303000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2045000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2259000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2256000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2137000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2067000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1952000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2046000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2093000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2121000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1802000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2054000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1692000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1722000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1426000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>816000</v>
+      </c>
+      <c r="E47" s="3">
         <v>834000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>811000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>355000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>323000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>305000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>348000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>332000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>306000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>301000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>293000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>307000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>273000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>250000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>233000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>95000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>74000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>51000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>37000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>71000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4197000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4027000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3889000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3929000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3676000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3390000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3399000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3579000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3399000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3525000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3636000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1615000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1605000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1657000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1755000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1719000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1652000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1617000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1627000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1647000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1069000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1063000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1078000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1046000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>492000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>339000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>348000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>353000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>371000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>384000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>382000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>399000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>421000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>452000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>209000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>211000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>208000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>167000</v>
       </c>
       <c r="V49" s="3">
         <v>167000</v>
       </c>
       <c r="W49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="X49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,73 +3408,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E52" s="3">
         <v>334000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>318000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>577000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>541000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>473000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>446000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>432000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>396000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>391000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>382000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>354000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>368000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>309000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>333000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>490000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>469000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>453000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>424000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>416000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,73 +3544,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11506000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11304000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10837000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10875000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10386000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6963000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6577000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6950000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6710000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6725000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6762000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4610000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4691000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4730000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4894000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4287000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4460000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4021000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3977000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3727000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,78 +3666,82 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E57" s="3">
         <v>712000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>571000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>708000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>634000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>566000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>466000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>623000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>563000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>588000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>556000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>619000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>551000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>584000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>529000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>420000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>575000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>492000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>509000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>480000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
         <v>2000</v>
@@ -3628,16 +3762,16 @@
         <v>2000</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3648,8 +3782,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3657,152 +3791,161 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1402000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1349000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1357000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1371000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1155000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1015000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1111000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1084000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1037000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1029000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>634000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>641000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>622000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>691000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>620000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>637000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>510000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>559000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>523000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2116000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1922000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2067000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2007000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1723000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1483000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1736000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1648000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1626000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1587000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1253000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1192000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1206000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1220000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1024000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1212000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1002000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1068000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1004000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="E61" s="3">
         <v>28000</v>
@@ -3811,123 +3954,129 @@
         <v>28000</v>
       </c>
       <c r="G61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="H61" s="3">
         <v>25000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>28000</v>
       </c>
       <c r="S61" s="3">
         <v>28000</v>
       </c>
       <c r="T61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U61" s="3">
         <v>27000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>28000</v>
       </c>
       <c r="V61" s="3">
         <v>28000</v>
       </c>
       <c r="W61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="X61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2401000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2332000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2274000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2309000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2147000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1929000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1915000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2013000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1924000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1996000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2089000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>355000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>385000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>396000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>442000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>464000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>274000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>260000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>251000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>252000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,73 +4276,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4898000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4729000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4462000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4669000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4424000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3760000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3523000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3873000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3685000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3728000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3776000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1737000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1707000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1727000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1787000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1522000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1589000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1352000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1397000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1350000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,73 +4642,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2468000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2415000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2285000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2105000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2004000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1565000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1433000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1416000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1371000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1193000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1060000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>944000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>916000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>751000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>646000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>397000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>533000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>322000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>215000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,73 +4914,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6608000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6575000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6375000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6206000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5962000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3203000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3054000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3077000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3025000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2997000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2986000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2873000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2984000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3003000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3107000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2765000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2871000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2669000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2580000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2377000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5050,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>181000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>230000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>151000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>439000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>132000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>62000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>90000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>223000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>178000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>222000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>203000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>143000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>288000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>398000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>211000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>107000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>175000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>88000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,73 +5219,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E83" s="3">
         <v>124000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>128000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>123000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>113000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>105000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>109000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>106000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>105000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>111000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>102000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>108000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>117000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>118000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>409000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>105000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>96000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>64000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>130000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E89" s="3">
         <v>442000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>331000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>215000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>447000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>392000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>60000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>388000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>313000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>344000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>160000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>354000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>268000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>551000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>884000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>514000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>116000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>357000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>42000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,73 +5721,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-138000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-165000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-135000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-99000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-87000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-125000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-98000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-102000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-110000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-129000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-119000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-415000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-85000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-103000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-74000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-168000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,73 +5923,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-264000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-347000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-776000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-763000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-357000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-185000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-267000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-121000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-267000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-557000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>138000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-259000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-173000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-239000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6019,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5795,19 +6029,19 @@
         <v>-51000</v>
       </c>
       <c r="E96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="F96" s="3">
         <v>-50000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-45000</v>
@@ -5819,26 +6053,26 @@
         <v>-45000</v>
       </c>
       <c r="M96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="N96" s="3">
         <v>-46000</v>
       </c>
       <c r="O96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="P96" s="3">
         <v>-38000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-39000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-38000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5851,8 +6085,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,199 +6289,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-86000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2203000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-112000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-146000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-113000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-132000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-51000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-185000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-99000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-42000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>342000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>23000</v>
       </c>
       <c r="G101" s="3">
         <v>23000</v>
       </c>
       <c r="H101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>32000</v>
       </c>
       <c r="S101" s="3">
         <v>32000</v>
       </c>
       <c r="T101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E102" s="3">
         <v>125000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-74000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-624000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1101000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-376000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-309000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-68000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>73000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>259000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>174000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>585000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-182000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>189000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>135000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,310 +665,322 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2554000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2451000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2557000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2259000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2348000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1902000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1754000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2029000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2319000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2124000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2304000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1914000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2212000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2068000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2221000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7769000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2038000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1594000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1284000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1978000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1514000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1386000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1417000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1278000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1282000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1045000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1176000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1273000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1211000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1271000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1110000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1133000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1196000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4169000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>978000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>811000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>602000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1027000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>889000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1040000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1065000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1140000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>981000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1066000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>802000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>709000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>853000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1046000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>913000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1033000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>804000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1016000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>935000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1025000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3600000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1060000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>783000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>682000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>951000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,76 +1145,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-597000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-238000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-98000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>74000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>32000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,34 +1228,34 @@
         <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>1000</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1247,8 +1269,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1265,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2366000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2208000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2206000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2079000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1792000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1774000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1657000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1935000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2019000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1920000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2001000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1830000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1943000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1875000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1826000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6991000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1721000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1451000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1030000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1920000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E18" s="3">
         <v>188000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>243000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>351000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>180000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>556000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>128000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>94000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>204000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>303000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>269000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>193000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>395000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>778000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>317000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>143000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>254000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>58000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,155 +1482,162 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>44000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>49000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>53000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>10000</v>
       </c>
       <c r="Q20" s="3">
         <v>10000</v>
       </c>
       <c r="R20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>772000</v>
+      </c>
+      <c r="E21" s="3">
         <v>283000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>382000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>473000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>347000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>718000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>286000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>207000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>234000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>427000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>337000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>433000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>167000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>387000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>320000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>521000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1212000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>428000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>244000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>320000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>213000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1615,20 +1654,20 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1654,144 +1693,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E23" s="3">
         <v>155000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>257000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>345000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>224000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>605000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>181000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>128000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>322000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>231000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>322000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>65000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>279000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>203000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>403000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>803000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>323000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>148000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>256000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>83000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E24" s="3">
         <v>44000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>64000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>102000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>63000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>155000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>45000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>87000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>53000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>107000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>215000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>102000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>76000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E26" s="3">
         <v>111000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>193000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>243000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>161000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>450000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>136000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>66000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>235000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>185000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>237000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>42000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>212000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>150000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>296000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>588000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>221000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>113000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>180000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>90000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E27" s="3">
         <v>104000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>181000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>230000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>151000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>439000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>132000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>90000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>223000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>178000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>230000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>203000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>143000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>288000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>562000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>211000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>107000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>175000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2088,8 +2148,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2098,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-8000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>36000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2112,11 +2172,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2130,8 +2190,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,144 +2332,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>33000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-44000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-49000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-53000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-10000</v>
       </c>
       <c r="Q32" s="3">
         <v>-10000</v>
       </c>
       <c r="R32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E33" s="3">
         <v>104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>181000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>230000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>151000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>439000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>132000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>62000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>90000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>223000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>178000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>222000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>203000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>143000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>288000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>398000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>211000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>107000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>175000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>88000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E35" s="3">
         <v>104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>181000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>230000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>151000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>439000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>132000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>62000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>90000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>223000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>178000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>222000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>203000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>143000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>288000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>398000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>211000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>107000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>175000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>88000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,620 +2748,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1278000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1209000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1084000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1158000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1782000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>674000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1048000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1046000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1355000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1296000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1247000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1266000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1334000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1261000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1318000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1059000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1477000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>892000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1074000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>885000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2860000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3099000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3139000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3026000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3105000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2424000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1034000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>490000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>611000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>364000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>284000</v>
       </c>
       <c r="N42" s="3">
         <v>284000</v>
       </c>
       <c r="O42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="P42" s="3">
         <v>122000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>198000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>278000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>276000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>205000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>91000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>310000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>180000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>79000</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E43" s="3">
         <v>132000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>137000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>125000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>146000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>86000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>78000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>111000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>130000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>129000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>90000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>107000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>95000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>119000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>81000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>74000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>68000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>74000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E44" s="3">
         <v>390000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>380000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>345000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>398000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>346000</v>
       </c>
       <c r="I44" s="3">
         <v>346000</v>
       </c>
       <c r="J44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="K44" s="3">
         <v>317000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>380000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>317000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>309000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>280000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>307000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>270000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>276000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>261000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>297000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>246000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>266000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>231000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>268000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E45" s="3">
         <v>183000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>175000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>176000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>129000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>162000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>166000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>112000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>93000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>109000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>118000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>133000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>128000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>154000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>171000</v>
       </c>
       <c r="R45" s="3">
         <v>171000</v>
       </c>
       <c r="S45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="T45" s="3">
         <v>122000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>159000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>150000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>169000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>120000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4716000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5082000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5040000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4756000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4936000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2303000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2045000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2259000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2256000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2137000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2067000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1952000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2046000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2093000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2121000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1802000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2054000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1692000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1722000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1426000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E47" s="3">
         <v>816000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>834000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>811000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>355000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>323000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>305000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>348000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>332000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>306000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>301000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>293000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>307000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>273000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>250000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>233000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>95000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>74000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>51000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>37000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>71000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4863000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4197000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4027000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3889000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3929000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3676000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3390000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3399000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3579000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3399000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3525000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3636000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1615000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1605000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1657000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1755000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1719000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1652000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1617000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1627000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1647000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1076000</v>
+        <v>2642000</v>
       </c>
       <c r="E49" s="3">
-        <v>1069000</v>
+        <v>1214000</v>
       </c>
       <c r="F49" s="3">
-        <v>1063000</v>
+        <v>1216000</v>
       </c>
       <c r="G49" s="3">
-        <v>1078000</v>
+        <v>1264000</v>
       </c>
       <c r="H49" s="3">
-        <v>1046000</v>
+        <v>1522000</v>
       </c>
       <c r="I49" s="3">
-        <v>492000</v>
+        <v>1451000</v>
       </c>
       <c r="J49" s="3">
+        <v>844000</v>
+      </c>
+      <c r="K49" s="3">
         <v>339000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>348000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>353000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>371000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>384000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>382000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>399000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>421000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>452000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>209000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>211000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>208000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>167000</v>
       </c>
       <c r="W49" s="3">
         <v>167000</v>
       </c>
       <c r="X49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,76 +3527,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>335000</v>
+        <v>165000</v>
       </c>
       <c r="E52" s="3">
-        <v>334000</v>
+        <v>197000</v>
       </c>
       <c r="F52" s="3">
-        <v>318000</v>
+        <v>187000</v>
       </c>
       <c r="G52" s="3">
-        <v>577000</v>
+        <v>117000</v>
       </c>
       <c r="H52" s="3">
-        <v>541000</v>
+        <v>133000</v>
       </c>
       <c r="I52" s="3">
-        <v>473000</v>
+        <v>136000</v>
       </c>
       <c r="J52" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K52" s="3">
         <v>446000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>432000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>396000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>391000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>382000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>354000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>368000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>309000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>333000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>490000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>469000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>453000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>424000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>416000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13223000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11506000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11304000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10837000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10875000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10386000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6963000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6577000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6950000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6710000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6725000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6762000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4610000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4691000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4730000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4894000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4287000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4460000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4021000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3977000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3727000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,76 +3796,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E57" s="3">
         <v>756000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>712000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>571000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>708000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>634000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>566000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>466000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>623000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>563000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>588000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>556000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>619000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>551000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>584000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>529000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>420000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>575000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>492000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>509000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>480000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3744,7 +3877,7 @@
         <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="3">
         <v>2000</v>
@@ -3765,16 +3898,16 @@
         <v>2000</v>
       </c>
       <c r="L58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>2000</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3785,8 +3918,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3794,161 +3927,170 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1435000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1402000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1349000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1357000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1371000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1155000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1015000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1111000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1084000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1037000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1029000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>634000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>641000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>622000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>691000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>620000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>637000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>510000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>559000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>523000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2383000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2194000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2116000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1922000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2067000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2007000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1723000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1483000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1736000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1648000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1626000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1587000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1253000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1192000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1206000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1220000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1024000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1212000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1002000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1068000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1004000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E61" s="3">
         <v>34000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>28000</v>
       </c>
       <c r="F61" s="3">
         <v>28000</v>
@@ -3957,126 +4099,132 @@
         <v>28000</v>
       </c>
       <c r="H61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I61" s="3">
         <v>25000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>28000</v>
       </c>
       <c r="T61" s="3">
         <v>28000</v>
       </c>
       <c r="U61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V61" s="3">
         <v>27000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>28000</v>
       </c>
       <c r="W61" s="3">
         <v>28000</v>
       </c>
       <c r="X61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2401000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2332000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2274000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2309000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2147000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1929000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1915000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2013000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1924000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1996000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2089000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>355000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>385000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>396000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>442000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>464000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>274000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>260000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>251000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>252000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6167000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4898000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4729000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4462000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4669000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4424000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3760000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3523000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3873000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3685000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3728000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3776000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1737000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1727000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1787000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1522000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1589000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1352000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1397000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1350000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2892000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2468000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2415000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2285000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2105000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2004000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1565000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1433000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1416000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1371000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1193000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1060000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>944000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>916000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>751000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>646000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>397000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>533000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>322000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>215000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7056000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6608000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6575000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6375000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6206000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5962000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3203000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3054000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3077000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3025000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2997000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2986000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2873000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2984000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3003000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3107000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2765000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2871000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2669000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2580000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2377000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E81" s="3">
         <v>104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>181000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>230000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>151000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>439000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>132000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>62000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>90000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>223000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>178000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>222000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>203000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>143000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>288000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>398000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>211000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>107000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>175000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>88000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,76 +5417,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E83" s="3">
         <v>128000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>124000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>128000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>123000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>113000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>105000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>109000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>105000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>111000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>102000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>108000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>117000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>118000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>409000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>105000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>96000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>64000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>130000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E89" s="3">
         <v>301000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>442000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>331000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>215000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>447000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>392000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>60000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>388000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>313000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>344000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>160000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>354000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>268000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>551000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>884000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>514000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>116000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>357000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>42000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-179000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-138000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-165000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-135000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-99000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-98000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-87000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-125000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-98000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-102000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-110000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-111000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-119000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-415000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-85000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-103000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-74000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-168000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-132000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-264000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-347000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-776000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-763000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-357000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-185000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-101000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-267000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-139000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-267000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-557000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>138000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-259000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-173000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-239000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6032,19 +6265,19 @@
         <v>-51000</v>
       </c>
       <c r="F96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="G96" s="3">
         <v>-50000</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-45000</v>
@@ -6056,26 +6289,26 @@
         <v>-45000</v>
       </c>
       <c r="N96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="O96" s="3">
         <v>-46000</v>
       </c>
       <c r="P96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="Q96" s="3">
         <v>-38000</v>
       </c>
       <c r="R96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-39000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-38000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6088,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,208 +6534,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-101000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-86000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2203000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-112000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-146000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-113000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-135000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-51000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-185000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-99000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-42000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>342000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>23000</v>
       </c>
       <c r="H101" s="3">
         <v>23000</v>
       </c>
       <c r="I101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-51000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>32000</v>
       </c>
       <c r="T101" s="3">
         <v>32000</v>
       </c>
       <c r="U101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E102" s="3">
         <v>69000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>125000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-74000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-624000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1101000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-376000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-309000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-68000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>73000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-57000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>259000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>174000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>585000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-182000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>189000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>135000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,335 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2668000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2291000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2554000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2451000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2557000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2259000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2348000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1902000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1754000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2029000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2319000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2124000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2304000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1914000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2212000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2068000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2221000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7769000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2038000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1594000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1284000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1978000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1402000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1514000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1386000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1417000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1278000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1282000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1100000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1045000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1176000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1273000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1211000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1271000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1196000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1133000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1196000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4169000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>978000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>811000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>602000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1027000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1134000</v>
+      </c>
+      <c r="E10" s="3">
         <v>889000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1040000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1065000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1140000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>981000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1066000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>802000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>709000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>853000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1046000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>913000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1033000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>804000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1016000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>935000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1025000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3600000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1060000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>783000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>682000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>951000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,79 +1165,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-597000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-238000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-98000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>74000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>32000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,34 +1254,34 @@
         <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>1000</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>1000</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1272,8 +1295,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1290,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2451000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1644000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2366000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2208000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2206000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2079000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1792000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1774000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1657000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1935000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2019000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1920000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2001000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1830000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1943000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1875000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1826000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6991000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1721000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1451000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1030000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1920000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E18" s="3">
         <v>647000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>188000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>243000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>351000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>180000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>556000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>128000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>97000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>204000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>303000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>84000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>269000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>193000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>395000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>778000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>317000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>143000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>254000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>58000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,164 +1516,171 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-33000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>44000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>49000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>53000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>10000</v>
       </c>
       <c r="R20" s="3">
         <v>10000</v>
       </c>
       <c r="S20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E21" s="3">
         <v>772000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>283000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>382000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>473000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>347000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>718000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>286000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>207000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>234000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>427000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>337000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>433000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>167000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>387000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>320000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>521000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1212000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>428000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>244000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>320000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>213000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1657,20 +1697,20 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1696,150 +1736,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E23" s="3">
         <v>635000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>155000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>257000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>345000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>224000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>605000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>181000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>128000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>322000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>231000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>322000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>65000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>279000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>203000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>403000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>803000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>323000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>148000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>256000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>83000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E24" s="3">
         <v>159000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>44000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>64000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>102000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>63000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>155000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>87000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>53000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>107000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>215000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>102000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>76000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E26" s="3">
         <v>476000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>111000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>193000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>243000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>161000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>450000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>136000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>94000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>235000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>185000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>237000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>212000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>150000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>296000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>588000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>221000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>113000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>180000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>90000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="3">
         <v>475000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>104000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>181000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>230000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>151000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>439000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>132000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>90000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>223000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>178000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>230000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>203000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>143000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>288000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>562000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>211000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>107000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>175000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>88000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2151,8 +2212,8 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2161,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-8000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>36000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2175,11 +2236,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,150 +2402,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E32" s="3">
         <v>11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>33000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-44000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-49000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-53000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-10000</v>
       </c>
       <c r="R32" s="3">
         <v>-10000</v>
       </c>
       <c r="S32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E33" s="3">
         <v>475000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>104000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>181000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>230000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>151000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>439000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>132000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>90000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>223000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>178000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>222000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>203000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>143000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>288000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>398000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>211000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>107000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>175000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>88000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E35" s="3">
         <v>475000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>104000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>181000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>230000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>151000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>439000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>132000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>90000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>223000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>178000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>222000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>203000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>143000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>288000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>398000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>211000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>107000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>175000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>88000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,576 +2835,601 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1047000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1136000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1278000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1209000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1084000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1158000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1782000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>674000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1048000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1046000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1355000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1296000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1247000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1266000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1334000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1261000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1318000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1059000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1477000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>892000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1074000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>885000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2860000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3099000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3139000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3026000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3105000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2424000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1034000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>490000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>611000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>364000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>284000</v>
       </c>
       <c r="O42" s="3">
         <v>284000</v>
       </c>
       <c r="P42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="Q42" s="3">
         <v>122000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>198000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>278000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>276000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>205000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>91000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>310000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>180000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>79000</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E43" s="3">
         <v>112000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>132000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>137000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>125000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>146000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>86000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>83000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>111000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>130000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>90000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>107000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>95000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>119000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>81000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>74000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>68000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>74000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E44" s="3">
         <v>432000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>390000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>380000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>345000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>398000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>346000</v>
       </c>
       <c r="J44" s="3">
         <v>346000</v>
       </c>
       <c r="K44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="L44" s="3">
         <v>317000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>380000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>317000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>309000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>280000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>307000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>270000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>276000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>261000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>297000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>246000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>266000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>231000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>268000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E45" s="3">
         <v>176000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>183000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>175000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>176000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>129000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>162000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>166000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>93000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>109000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>133000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>128000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>154000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>171000</v>
       </c>
       <c r="S45" s="3">
         <v>171000</v>
       </c>
       <c r="T45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="U45" s="3">
         <v>122000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>159000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>150000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>169000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>120000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4266000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4716000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5082000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5040000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4756000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4936000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2303000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2045000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2259000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2256000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2137000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2067000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1952000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2046000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2093000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2121000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1802000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2054000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1692000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1722000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1426000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>814000</v>
+      </c>
+      <c r="E47" s="3">
         <v>837000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>816000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>834000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>811000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>355000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>323000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>305000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>348000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>332000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>306000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>301000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>293000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>307000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>273000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>250000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>233000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>95000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>74000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>51000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>37000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>71000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4777000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4863000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4197000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4027000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3889000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3929000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3676000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3390000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3399000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3579000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3399000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3525000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3636000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1605000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1657000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1755000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1719000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1652000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1617000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1627000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1647000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3326,70 +3437,73 @@
         <v>2642000</v>
       </c>
       <c r="E49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1214000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1216000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1264000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1522000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1451000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>844000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>339000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>348000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>353000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>371000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>384000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>382000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>399000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>421000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>452000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>209000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>211000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>208000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>167000</v>
       </c>
       <c r="X49" s="3">
         <v>167000</v>
       </c>
       <c r="Y49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,79 +3647,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E52" s="3">
         <v>165000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>197000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>187000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>117000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>133000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>136000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>121000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>446000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>432000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>396000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>391000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>382000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>354000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>368000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>309000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>333000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>490000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>469000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>453000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>424000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>416000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12639000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13223000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11506000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11304000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10837000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10875000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10386000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6963000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6577000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6950000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6710000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6725000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6762000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4610000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4691000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4730000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4894000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4287000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4460000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4021000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3977000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3727000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,90 +3927,94 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E57" s="3">
         <v>830000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>756000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>712000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>571000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>708000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>634000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>566000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>466000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>623000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>563000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>588000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>556000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>619000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>551000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>584000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>529000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>420000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>575000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>492000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>509000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>480000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
         <v>3000</v>
       </c>
       <c r="F58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G58" s="3">
         <v>2000</v>
@@ -3901,16 +4035,16 @@
         <v>2000</v>
       </c>
       <c r="M58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>2000</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3921,8 +4055,8 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3930,170 +4064,179 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1550000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1435000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1402000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1349000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1357000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1371000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1155000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1015000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1111000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1084000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1037000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1029000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>634000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>641000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>622000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>691000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>620000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>637000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>510000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>559000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>523000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2383000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2194000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2116000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1922000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2067000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2007000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1723000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1483000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1736000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1648000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1626000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1587000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1253000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1192000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1206000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1220000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1024000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1212000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1002000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1068000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1004000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E61" s="3">
         <v>40000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>28000</v>
       </c>
       <c r="G61" s="3">
         <v>28000</v>
@@ -4102,129 +4245,135 @@
         <v>28000</v>
       </c>
       <c r="I61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J61" s="3">
         <v>25000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>28000</v>
       </c>
       <c r="U61" s="3">
         <v>28000</v>
       </c>
       <c r="V61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="W61" s="3">
         <v>27000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>28000</v>
       </c>
       <c r="X61" s="3">
         <v>28000</v>
       </c>
       <c r="Y61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2805000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2878000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2401000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2332000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2274000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2309000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2147000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1929000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1915000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2013000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1924000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1996000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2089000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>355000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>385000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>396000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>442000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>464000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>274000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>260000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>251000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>252000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5746000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6167000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4898000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4729000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4462000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4669000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4424000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3760000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3523000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3873000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3685000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3728000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3776000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1737000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1707000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1727000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1787000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1522000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1589000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1352000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1397000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1350000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2941000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2892000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2468000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2415000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2285000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2105000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2004000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1565000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1433000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1416000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1371000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1193000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1060000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>944000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>916000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>751000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>646000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>397000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>533000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>322000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>215000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>40000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6893000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7056000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6608000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6575000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6375000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6206000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5962000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3203000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3054000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3077000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3025000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2997000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2986000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2873000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2984000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3003000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3107000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2765000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2871000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2669000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2580000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2377000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E81" s="3">
         <v>475000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>104000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>181000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>230000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>151000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>439000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>132000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>90000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>223000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>178000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>222000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>203000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>143000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>288000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>398000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>211000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>107000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>175000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>88000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,79 +5616,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E83" s="3">
         <v>136000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>128000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>124000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>128000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>123000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>113000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>105000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>105000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>106000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>111000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>102000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>108000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>117000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>118000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>409000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>105000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>96000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>64000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>130000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E89" s="3">
         <v>57000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>301000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>442000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>331000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>215000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>447000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>392000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>60000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>140000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>388000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>313000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>344000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>160000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>354000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>268000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>551000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>884000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>514000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>116000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>357000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>42000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-207000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-179000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-138000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-165000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-135000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-99000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-98000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-87000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-125000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-98000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-102000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-110000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-129000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-119000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-111000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-415000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-85000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-103000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-74000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-168000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-112000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-132000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-264000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-347000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-776000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-763000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-357000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-185000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-267000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-121000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-139000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-267000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-557000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>138000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-259000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-173000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-239000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6268,19 +6502,19 @@
         <v>-51000</v>
       </c>
       <c r="G96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="H96" s="3">
         <v>-50000</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-45000</v>
@@ -6292,26 +6526,26 @@
         <v>-45000</v>
       </c>
       <c r="O96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="P96" s="3">
         <v>-46000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="R96" s="3">
         <v>-38000</v>
       </c>
       <c r="S96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-39000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-38000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6324,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,217 +6780,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-274000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-93000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-101000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-86000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2203000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-112000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-109000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-146000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-113000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-132000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-135000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-51000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-185000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-99000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-42000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>342000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>23000</v>
       </c>
       <c r="I101" s="3">
         <v>23000</v>
       </c>
       <c r="J101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-51000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>26000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>32000</v>
       </c>
       <c r="U101" s="3">
         <v>32000</v>
       </c>
       <c r="V101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-142000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>69000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>125000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-74000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-624000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1101000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-376000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-309000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>73000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-57000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>259000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>174000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>585000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-182000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>189000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>135000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2668000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2291000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2554000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2451000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2557000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2259000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2348000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1902000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1754000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2029000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2319000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2124000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2304000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1914000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2212000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2068000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2221000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7769000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2038000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1594000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1284000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1978000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1534000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1402000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1514000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1386000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1417000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1278000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1282000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1045000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1176000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1273000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1211000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1271000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1110000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1196000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1133000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1196000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4169000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>978000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>811000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>602000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1027000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1134000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>889000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1040000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1065000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1140000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>981000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1066000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>802000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>709000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>853000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1046000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>913000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>804000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1016000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>935000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1025000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3600000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1060000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>783000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>682000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>951000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,82 +1185,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-597000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-238000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-98000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>74000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>32000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1257,34 +1280,34 @@
         <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>1000</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>1000</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1298,8 +1321,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2023000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2451000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1644000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2366000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2208000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2206000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2079000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1792000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1774000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1657000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1935000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2019000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1920000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2001000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1830000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1943000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1875000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1826000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6991000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1721000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1451000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1030000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1920000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E18" s="3">
         <v>217000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>647000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>188000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>243000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>351000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>180000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>556000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>97000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>94000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>204000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>303000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>84000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>269000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>193000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>395000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>778000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>317000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>143000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>254000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>58000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,173 +1550,180 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-51000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-33000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>44000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>49000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>53000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>10000</v>
       </c>
       <c r="S20" s="3">
         <v>10000</v>
       </c>
       <c r="T20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="U20" s="3">
         <v>8000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E21" s="3">
         <v>330000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>772000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>283000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>382000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>473000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>347000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>718000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>286000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>207000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>234000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>427000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>337000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>433000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>167000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>387000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>320000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>521000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1212000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>428000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>244000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>320000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>213000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1700,20 +1740,20 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1739,156 +1779,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E23" s="3">
         <v>166000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>635000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>155000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>257000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>345000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>224000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>605000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>181000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>128000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>322000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>231000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>322000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>65000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>279000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>203000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>403000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>803000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>323000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>148000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>256000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>83000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>159000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>64000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>102000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>63000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>155000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>87000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>53000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>107000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>215000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>102000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>35000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>76000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E26" s="3">
         <v>111000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>476000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>111000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>193000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>243000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>161000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>450000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>235000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>185000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>237000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>212000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>150000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>296000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>588000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>221000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>113000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>180000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>90000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E27" s="3">
         <v>100000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>475000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>104000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>181000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>230000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>151000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>439000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>132000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>90000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>223000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>178000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>230000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>203000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>143000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>288000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>562000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>211000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>107000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>175000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>88000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,31 +2241,34 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2215,8 +2276,8 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2225,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>36000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2239,11 +2300,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,156 +2472,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>51000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>33000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-44000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-49000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-53000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-10000</v>
       </c>
       <c r="S32" s="3">
         <v>-10000</v>
       </c>
       <c r="T32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-8000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E33" s="3">
         <v>100000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>475000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>104000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>181000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>230000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>151000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>439000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>132000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>90000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>223000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>178000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>222000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>203000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>143000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>288000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>398000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>211000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>107000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>175000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>88000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E35" s="3">
         <v>100000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>475000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>104000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>181000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>230000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>151000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>439000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>132000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>90000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>223000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>178000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>222000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>203000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>143000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>288000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>398000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>211000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>107000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>175000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>88000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,674 +2922,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1047000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1136000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1278000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1209000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1084000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1158000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1782000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>674000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1048000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1046000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1355000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1296000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1266000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1334000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1261000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1318000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1059000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1477000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>892000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1074000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>885000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2622000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2860000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3099000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3139000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3026000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3105000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2424000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1034000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>490000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>611000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>364000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>284000</v>
       </c>
       <c r="P42" s="3">
         <v>284000</v>
       </c>
       <c r="Q42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="R42" s="3">
         <v>122000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>198000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>278000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>276000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>205000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>91000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>310000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>180000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>79000</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E43" s="3">
         <v>98000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>132000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>137000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>125000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>146000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>86000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>83000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>111000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>130000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>123000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>90000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>107000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>95000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>119000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>81000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>74000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>68000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>74000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E44" s="3">
         <v>345000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>432000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>390000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>380000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>345000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>398000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>346000</v>
       </c>
       <c r="K44" s="3">
         <v>346000</v>
       </c>
       <c r="L44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="M44" s="3">
         <v>317000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>380000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>317000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>309000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>280000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>307000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>270000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>276000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>261000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>297000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>246000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>266000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>231000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>268000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E45" s="3">
         <v>154000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>176000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>183000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>175000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>176000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>129000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>162000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>166000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>93000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>109000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>133000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>128000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>154000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>171000</v>
       </c>
       <c r="T45" s="3">
         <v>171000</v>
       </c>
       <c r="U45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="V45" s="3">
         <v>122000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>159000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>150000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>169000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>120000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4576000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4266000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4716000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5082000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5040000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4756000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4936000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4800000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2303000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2045000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2259000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2256000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2137000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2067000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1952000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2046000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2093000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2121000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1802000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2054000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1692000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1722000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1426000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E47" s="3">
         <v>814000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>837000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>816000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>834000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>811000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>355000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>323000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>305000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>348000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>332000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>306000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>301000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>293000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>307000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>273000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>250000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>233000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>95000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>74000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>51000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>37000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>71000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4371000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4777000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4863000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4197000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4027000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3889000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3929000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3676000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3390000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3399000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3579000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3399000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3525000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3636000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1615000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1605000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1657000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1755000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1719000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1652000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1617000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1627000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1647000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2642000</v>
+        <v>2476000</v>
       </c>
       <c r="E49" s="3">
         <v>2642000</v>
       </c>
       <c r="F49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="G49" s="3">
         <v>1214000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1216000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1264000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1522000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1451000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>844000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>339000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>348000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>353000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>371000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>384000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>382000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>399000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>421000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>452000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>209000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>211000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>208000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>167000</v>
       </c>
       <c r="Y49" s="3">
         <v>167000</v>
       </c>
       <c r="Z49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,82 +3767,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E52" s="3">
         <v>140000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>165000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>197000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>187000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>117000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>133000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>136000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>121000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>446000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>432000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>396000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>391000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>382000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>354000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>368000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>309000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>333000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>490000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>469000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>453000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>424000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>416000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12054000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12639000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13223000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11506000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11304000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10837000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10875000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10386000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6963000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6577000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6950000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6710000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6725000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6762000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4610000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4691000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4730000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4894000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4287000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4460000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4021000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3977000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3727000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,82 +4058,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E57" s="3">
         <v>592000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>830000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>756000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>712000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>571000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>708000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>634000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>566000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>466000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>623000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>563000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>588000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>556000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>619000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>551000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>584000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>529000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>420000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>575000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>492000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>509000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>480000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4011,13 +4145,13 @@
         <v>4000</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
         <v>3000</v>
       </c>
       <c r="G58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H58" s="3">
         <v>2000</v>
@@ -4038,16 +4172,16 @@
         <v>2000</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4058,8 +4192,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4067,179 +4201,188 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1489000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1550000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1435000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1402000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1349000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1357000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1371000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1155000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1015000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1111000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1084000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1037000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1029000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>634000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>641000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>622000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>691000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>620000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>637000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>510000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>559000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>523000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2085000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2383000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2194000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2116000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1922000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2067000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2007000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1723000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1483000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1736000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1648000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1626000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1587000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1253000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1192000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1206000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1220000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1024000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1212000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1002000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1068000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1004000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E61" s="3">
         <v>41000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>28000</v>
       </c>
       <c r="H61" s="3">
         <v>28000</v>
@@ -4248,132 +4391,138 @@
         <v>28000</v>
       </c>
       <c r="J61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K61" s="3">
         <v>25000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>28000</v>
       </c>
       <c r="V61" s="3">
         <v>28000</v>
       </c>
       <c r="W61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="X61" s="3">
         <v>27000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>28000</v>
       </c>
       <c r="Y61" s="3">
         <v>28000</v>
       </c>
       <c r="Z61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2560000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2805000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2878000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2401000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2332000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2274000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2309000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2147000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1929000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1915000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2013000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1924000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1996000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2089000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>355000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>385000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>396000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>442000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>464000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>274000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>260000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>251000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>252000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5525000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5746000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6167000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4898000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4729000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4462000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4669000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4424000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3760000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3523000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3873000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3685000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3728000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3776000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1737000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1707000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1727000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1787000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1522000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1589000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1352000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1397000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1350000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2083000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2941000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2892000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2468000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2415000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2285000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2105000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2004000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1565000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1433000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1416000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1371000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1193000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>944000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>916000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>751000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>646000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>397000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>533000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>322000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>215000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>40000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6529000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6893000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7056000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6608000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6575000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6375000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6206000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5962000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3203000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3054000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3077000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3025000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2997000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2986000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2873000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2984000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3003000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3107000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2765000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2871000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2669000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2580000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2377000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E81" s="3">
         <v>100000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>475000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>104000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>181000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>230000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>151000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>439000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>132000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>90000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>223000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>178000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>222000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>203000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>143000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>288000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>398000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>211000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>107000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>175000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>88000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,82 +5815,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E83" s="3">
         <v>164000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>136000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>128000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>124000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>128000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>123000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>113000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>105000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>105000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>111000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>102000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>108000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>117000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>118000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>409000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>105000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>96000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>64000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>130000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E89" s="3">
         <v>171000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>301000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>442000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>331000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>215000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>447000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>392000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>140000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>388000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>313000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>344000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>160000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>354000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>268000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>551000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>884000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>514000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>116000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>357000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>42000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6383,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-205000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-207000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-179000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-138000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-165000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-135000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-99000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-98000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-125000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-102000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-110000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-129000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-119000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-111000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-415000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-85000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-103000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-168000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6612,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E94" s="3">
         <v>13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-112000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-132000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-264000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-347000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-776000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-763000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-357000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-185000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-101000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-121000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-139000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-267000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-557000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>138000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-259000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-173000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-239000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,13 +6720,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51000</v>
+        <v>-50000</v>
       </c>
       <c r="E96" s="3">
         <v>-51000</v>
@@ -6505,19 +6739,19 @@
         <v>-51000</v>
       </c>
       <c r="H96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="I96" s="3">
         <v>-50000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-45000</v>
@@ -6529,26 +6763,26 @@
         <v>-45000</v>
       </c>
       <c r="P96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="Q96" s="3">
         <v>-46000</v>
       </c>
       <c r="R96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="S96" s="3">
         <v>-38000</v>
       </c>
       <c r="T96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-39000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-38000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6561,8 +6795,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,226 +7026,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-239000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-274000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-93000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-101000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-64000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-86000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2203000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-112000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-146000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-113000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-132000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-135000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-51000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-185000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-99000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-42000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>342000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>23000</v>
       </c>
       <c r="J101" s="3">
         <v>23000</v>
       </c>
       <c r="K101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-51000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>26000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>32000</v>
       </c>
       <c r="V101" s="3">
         <v>32000</v>
       </c>
       <c r="W101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-142000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>69000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>125000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-74000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-624000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1101000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-376000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-309000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>68000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-68000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>73000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-57000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>259000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>174000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>585000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-182000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>189000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>135000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2685000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2128000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2668000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2291000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2554000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2451000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2557000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2259000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2348000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1902000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1754000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2029000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2319000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2124000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2304000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1914000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2212000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2068000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2221000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7769000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2038000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1594000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1284000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1978000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1237000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1534000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1402000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1514000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1386000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1417000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1278000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1282000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1045000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1176000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1273000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1211000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1271000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1110000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1196000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1133000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1196000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4169000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>978000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>811000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>602000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1027000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1219000</v>
+      </c>
+      <c r="E10" s="3">
         <v>891000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1134000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>889000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1040000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1065000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1140000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>981000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1066000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>802000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>709000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>853000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1046000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>913000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1033000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>804000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1016000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>935000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1025000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3600000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1060000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>783000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>682000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>951000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,85 +1205,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-597000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-238000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-98000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>74000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>16000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>32000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,34 +1306,34 @@
         <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>1000</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1324,8 +1347,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2345000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2023000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2451000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1644000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2366000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2208000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2206000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2079000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1792000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1774000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1657000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1935000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2019000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1920000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2001000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1830000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1943000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1875000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1826000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6991000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1721000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1451000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1030000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1920000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E18" s="3">
         <v>105000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>217000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>647000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>188000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>243000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>351000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>180000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>556000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>94000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>204000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>303000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>84000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>269000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>193000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>395000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>778000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>317000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>143000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>254000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>58000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,182 +1584,189 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-51000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>44000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>53000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>27000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>10000</v>
       </c>
       <c r="T20" s="3">
         <v>10000</v>
       </c>
       <c r="U20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="V20" s="3">
         <v>8000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E21" s="3">
         <v>269000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>330000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>772000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>283000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>382000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>473000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>347000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>718000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>286000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>207000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>234000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>427000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>337000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>433000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>167000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>387000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>320000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>521000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1212000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>428000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>244000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>320000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>213000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1743,20 +1783,20 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1782,162 +1822,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E23" s="3">
         <v>115000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>166000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>635000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>155000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>257000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>345000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>224000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>605000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>181000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>128000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>322000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>231000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>322000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>65000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>279000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>203000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>403000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>803000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>323000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>148000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>256000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>83000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>159000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>44000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>64000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>102000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>63000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>155000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>87000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>53000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>107000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>215000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>102000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>35000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>76000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E26" s="3">
         <v>84000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>111000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>476000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>111000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>193000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>243000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>161000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>450000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>66000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>235000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>185000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>237000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>212000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>150000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>296000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>588000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>221000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>113000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>180000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>90000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E27" s="3">
         <v>83000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>475000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>104000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>181000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>230000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>151000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>439000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>132000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>90000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>223000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>178000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>230000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>203000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>143000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>288000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>562000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>211000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>107000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>175000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>88000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,8 +2331,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2279,8 +2340,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2289,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-8000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>36000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2364,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2321,8 +2382,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,162 +2542,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>51000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-44000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-53000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-10000</v>
       </c>
       <c r="T32" s="3">
         <v>-10000</v>
       </c>
       <c r="U32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-8000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E33" s="3">
         <v>83000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>475000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>104000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>181000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>230000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>151000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>439000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>132000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>90000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>223000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>178000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>222000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>74000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>203000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>143000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>288000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>398000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>211000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>107000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>175000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>88000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E35" s="3">
         <v>83000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>475000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>104000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>181000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>230000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>151000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>439000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>132000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>90000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>223000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>178000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>222000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>74000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>203000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>143000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>288000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>398000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>211000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>107000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>175000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>88000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,701 +3009,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1147000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1047000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1136000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1278000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1209000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1084000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1158000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1782000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>674000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1048000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1046000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1355000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1296000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1247000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1266000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1334000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1261000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1318000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1059000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1477000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>892000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1074000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>885000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2826000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2506000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2622000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2860000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3099000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3139000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3026000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3105000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2424000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1034000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>490000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>611000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>364000</v>
-      </c>
-      <c r="P42" s="3">
-        <v>284000</v>
       </c>
       <c r="Q42" s="3">
         <v>284000</v>
       </c>
       <c r="R42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="S42" s="3">
         <v>122000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>198000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>278000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>276000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>205000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>91000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>310000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>180000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>79000</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E43" s="3">
         <v>126000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>132000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>137000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>125000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>146000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>86000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>83000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>111000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>130000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>123000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>129000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>90000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>107000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>95000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>119000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>81000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>74000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>68000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>74000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E44" s="3">
         <v>353000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>345000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>432000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>390000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>380000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>345000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>398000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>346000</v>
       </c>
       <c r="L44" s="3">
         <v>346000</v>
       </c>
       <c r="M44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="N44" s="3">
         <v>317000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>380000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>317000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>309000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>280000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>307000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>270000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>276000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>261000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>297000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>246000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>266000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>231000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>268000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E45" s="3">
         <v>444000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>154000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>176000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>183000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>175000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>176000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>129000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>162000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>166000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>93000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>109000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>133000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>128000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>154000</v>
-      </c>
-      <c r="T45" s="3">
-        <v>171000</v>
       </c>
       <c r="U45" s="3">
         <v>171000</v>
       </c>
       <c r="V45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="W45" s="3">
         <v>122000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>159000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>150000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>169000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>120000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4710000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4576000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4266000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4716000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5082000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5040000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4756000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4936000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4800000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2303000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2045000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2259000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2256000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2067000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1952000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2046000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2093000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2121000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1802000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2054000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1692000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1722000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1426000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E47" s="3">
         <v>487000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>814000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>837000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>816000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>834000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>811000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>355000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>323000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>305000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>348000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>332000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>306000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>301000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>293000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>307000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>273000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>250000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>233000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>95000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>74000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>51000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>37000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>71000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4119000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4371000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4777000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4863000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4197000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4027000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3889000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3929000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3676000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3390000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3399000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3579000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3399000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3525000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3636000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1615000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1605000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1657000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1755000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1719000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1652000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1617000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1627000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1647000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2306000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2476000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2642000</v>
       </c>
       <c r="F49" s="3">
         <v>2642000</v>
       </c>
       <c r="G49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="H49" s="3">
         <v>1214000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1216000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1264000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1522000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1451000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>844000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>339000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>348000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>353000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>371000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>384000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>382000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>399000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>421000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>452000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>209000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>211000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>208000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>167000</v>
       </c>
       <c r="Z49" s="3">
         <v>167000</v>
       </c>
       <c r="AA49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,85 +3887,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E52" s="3">
         <v>144000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>140000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>165000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>197000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>187000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>117000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>133000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>136000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>446000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>432000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>396000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>391000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>382000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>354000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>368000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>309000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>333000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>490000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>469000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>453000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>424000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>416000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11696000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12054000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12639000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13223000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11506000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11304000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10837000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10875000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10386000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6963000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6577000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6950000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6710000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6725000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6762000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4610000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4691000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4730000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4894000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4287000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4460000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4021000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3977000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3727000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,85 +4189,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E57" s="3">
         <v>730000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>592000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>830000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>756000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>712000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>571000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>708000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>634000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>566000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>466000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>623000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>563000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>588000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>556000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>619000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>551000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>584000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>529000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>420000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>575000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>492000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>509000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>480000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4148,13 +4282,13 @@
         <v>4000</v>
       </c>
       <c r="F58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G58" s="3">
         <v>3000</v>
       </c>
       <c r="H58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I58" s="3">
         <v>2000</v>
@@ -4175,16 +4309,16 @@
         <v>2000</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>2000</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4195,8 +4329,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4204,188 +4338,197 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1000</v>
       </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1419000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1489000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1550000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1435000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1402000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1349000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1357000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1371000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1155000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1015000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1111000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1084000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1037000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1029000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>634000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>641000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>622000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>691000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>620000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>637000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>510000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>559000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>523000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2104000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2153000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2085000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2383000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2194000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2116000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1922000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2067000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2007000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1723000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1483000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1736000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1648000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1626000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1587000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1253000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1192000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1206000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1220000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1024000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1212000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1002000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1068000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1004000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>28000</v>
       </c>
       <c r="I61" s="3">
         <v>28000</v>
@@ -4394,135 +4537,141 @@
         <v>28000</v>
       </c>
       <c r="K61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="L61" s="3">
         <v>25000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>28000</v>
       </c>
       <c r="W61" s="3">
         <v>28000</v>
       </c>
       <c r="X61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>27000</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>28000</v>
       </c>
       <c r="Z61" s="3">
         <v>28000</v>
       </c>
       <c r="AA61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AB61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2388000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2560000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2805000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2878000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2401000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2332000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2274000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2309000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2147000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1929000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1915000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2013000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1924000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1996000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2089000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>355000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>385000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>396000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>442000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>464000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>274000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>260000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>251000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>252000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5278000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5525000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5746000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6167000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4898000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4729000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4462000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4669000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4424000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3760000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3523000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3873000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3685000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3728000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3776000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1737000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1707000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1727000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1787000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1522000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1589000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1352000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1397000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1350000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2083000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2941000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2892000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2468000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2415000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2285000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2105000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2004000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1565000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1433000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1416000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1371000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1193000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1060000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>944000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>916000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>751000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>646000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>397000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>533000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>322000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>215000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>40000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6418000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6529000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6893000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7056000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6608000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6575000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6375000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6206000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5962000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3203000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3054000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3077000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3025000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2997000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2986000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2873000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2984000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3003000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3107000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2765000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2871000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2669000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2580000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2377000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E81" s="3">
         <v>83000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>475000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>104000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>181000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>230000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>151000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>439000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>132000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>90000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>223000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>178000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>222000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>74000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>203000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>143000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>288000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>398000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>211000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>107000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>175000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>88000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,85 +6014,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E83" s="3">
         <v>153000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>164000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>136000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>128000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>124000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>128000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>123000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>113000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>105000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>109000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>106000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>105000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>106000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>111000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>102000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>108000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>117000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>118000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>409000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>105000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>96000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>64000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>130000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E89" s="3">
         <v>438000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>57000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>301000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>442000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>331000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>215000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>447000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>392000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>140000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>388000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>313000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>344000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>160000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>354000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>268000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>551000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>884000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>514000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>116000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>357000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>42000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-142000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-205000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-207000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-179000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-138000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-165000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-135000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-99000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-98000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-125000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-98000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-102000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-110000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-129000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-119000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-111000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-415000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-85000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-168000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-541000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-112000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-132000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-264000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-347000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-776000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-763000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-357000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-185000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-267000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-121000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-139000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-267000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-557000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>138000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-259000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-173000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-239000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,16 +6954,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-50000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-51000</v>
       </c>
       <c r="F96" s="3">
         <v>-51000</v>
@@ -6742,19 +6976,19 @@
         <v>-51000</v>
       </c>
       <c r="I96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="J96" s="3">
         <v>-50000</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-45000</v>
@@ -6766,26 +7000,26 @@
         <v>-45000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="R96" s="3">
         <v>-46000</v>
       </c>
       <c r="S96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="T96" s="3">
         <v>-38000</v>
       </c>
       <c r="U96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-39000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-38000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -6798,8 +7032,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,235 +7272,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-239000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-274000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-93000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-101000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-64000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-55000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-86000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2203000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-112000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-146000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-113000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-132000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-135000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-51000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-185000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-99000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>342000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>23000</v>
       </c>
       <c r="K101" s="3">
         <v>23000</v>
       </c>
       <c r="L101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-26000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-51000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>26000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>32000</v>
       </c>
       <c r="W101" s="3">
         <v>32000</v>
       </c>
       <c r="X101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E102" s="3">
         <v>100000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-89000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-142000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>69000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>125000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-74000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-624000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1101000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-376000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-309000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>68000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-68000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>73000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-57000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>259000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>174000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>585000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-182000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>189000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>135000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,373 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2088000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2685000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2128000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2668000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2291000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2554000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2451000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2557000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2259000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2348000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1902000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1754000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2029000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2319000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2124000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2304000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1914000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2212000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2068000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2221000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7769000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2038000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1594000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1284000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1978000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1466000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1237000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1534000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1402000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1514000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1386000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1417000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1278000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1282000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1045000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1176000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1273000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1211000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1271000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1110000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1196000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1133000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1196000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4169000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>978000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>811000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>602000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1027000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1219000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>891000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1134000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>889000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1040000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1065000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1140000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>981000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1066000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>802000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>709000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>853000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>913000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1033000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>804000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1016000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>935000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1025000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3600000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1060000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>783000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>682000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>951000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1141,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,88 +1224,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-597000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-238000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-98000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>74000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>16000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>32000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,34 +1331,34 @@
         <v>1000</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>1000</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>1000</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1350,8 +1372,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1368,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2345000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2023000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2451000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1644000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2366000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2208000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2206000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2079000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1792000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1774000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1657000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1935000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2019000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1920000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2001000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1830000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1943000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1875000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1826000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6991000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1721000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1451000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1030000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1920000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E18" s="3">
         <v>340000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>105000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>217000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>647000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>188000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>243000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>351000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>180000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>556000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>128000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>204000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>303000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>269000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>193000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>395000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>778000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>317000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>143000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>254000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>58000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,191 +1617,198 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-51000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-33000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>44000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>49000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>53000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>10000</v>
       </c>
       <c r="U20" s="3">
         <v>10000</v>
       </c>
       <c r="V20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W20" s="3">
         <v>8000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>25000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E21" s="3">
         <v>477000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>269000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>330000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>772000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>283000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>382000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>473000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>347000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>718000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>286000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>207000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>234000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>427000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>337000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>433000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>167000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>387000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>320000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>521000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1212000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>428000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>244000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>320000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>213000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1786,20 +1825,20 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1825,168 +1864,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E23" s="3">
         <v>326000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>115000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>166000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>635000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>155000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>257000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>345000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>224000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>605000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>181000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>128000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>322000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>231000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>322000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>65000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>279000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>203000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>403000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>803000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>323000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>148000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>256000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>83000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E24" s="3">
         <v>97000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>159000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>44000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>64000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>102000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>155000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>87000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>85000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>53000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>107000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>215000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>102000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>35000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>76000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E26" s="3">
         <v>229000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>84000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>111000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>476000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>111000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>193000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>243000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>161000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>450000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>66000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>235000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>185000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>237000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>212000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>150000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>296000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>588000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>221000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>113000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>180000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>90000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E27" s="3">
         <v>206000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>83000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>475000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>104000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>181000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>230000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>151000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>439000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>132000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>90000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>223000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>178000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>230000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>203000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>143000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>288000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>562000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>211000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>107000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>175000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>88000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2334,8 +2394,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2343,8 +2403,8 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2353,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-8000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>36000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2367,11 +2427,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2385,8 +2445,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,168 +2611,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>51000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>33000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-44000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-49000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-53000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>19000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-10000</v>
       </c>
       <c r="U32" s="3">
         <v>-10000</v>
       </c>
       <c r="V32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-8000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E33" s="3">
         <v>206000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>83000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>475000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>104000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>181000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>230000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>151000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>439000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>132000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>62000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>90000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>223000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>178000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>222000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>74000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>203000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>143000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>288000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>398000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>211000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>107000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>175000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>88000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E35" s="3">
         <v>206000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>83000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>475000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>104000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>181000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>230000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>151000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>439000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>132000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>62000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>90000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>223000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>178000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>222000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>74000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>203000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>143000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>288000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>398000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>211000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>107000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>175000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>88000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,728 +3095,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1211000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1147000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1047000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1136000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1278000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1209000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1084000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1158000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1782000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>674000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1048000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1046000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1355000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1296000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1247000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1266000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1334000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1261000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1318000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1059000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1477000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>892000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1074000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>885000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2022000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2826000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2506000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2622000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2860000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3099000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3139000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3026000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3105000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2424000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1034000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>490000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>611000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>364000</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>284000</v>
       </c>
       <c r="R42" s="3">
         <v>284000</v>
       </c>
       <c r="S42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="T42" s="3">
         <v>122000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>198000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>278000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>276000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>205000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>91000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>310000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>180000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>79000</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E43" s="3">
         <v>103000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>126000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>98000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>112000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>132000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>137000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>125000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>146000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>86000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>83000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>129000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>111000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>130000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>123000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>129000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>90000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>107000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>95000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>119000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>81000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>74000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>68000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>74000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E44" s="3">
         <v>321000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>353000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>345000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>432000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>390000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>380000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>345000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>398000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>346000</v>
       </c>
       <c r="M44" s="3">
         <v>346000</v>
       </c>
       <c r="N44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="O44" s="3">
         <v>317000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>380000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>317000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>309000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>280000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>307000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>270000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>276000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>261000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>297000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>246000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>266000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>231000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>268000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E45" s="3">
         <v>249000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>444000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>154000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>176000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>183000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>175000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>176000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>129000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>162000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>166000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>112000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>93000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>109000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>118000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>133000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>128000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>154000</v>
-      </c>
-      <c r="U45" s="3">
-        <v>171000</v>
       </c>
       <c r="V45" s="3">
         <v>171000</v>
       </c>
       <c r="W45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="X45" s="3">
         <v>122000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>159000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>150000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>169000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>120000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3940000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4710000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4576000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4266000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4716000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5082000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5040000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4756000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4936000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4800000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2303000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2045000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2259000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2256000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2137000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2067000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1952000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2046000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2093000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2121000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1802000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2054000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1692000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1722000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1426000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="E47" s="3">
         <v>436000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>487000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>814000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>837000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>816000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>834000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>811000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>355000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>323000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>305000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>348000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>332000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>306000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>301000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>293000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>307000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>273000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>250000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>233000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>95000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>74000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>51000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>37000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>71000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4337000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4119000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4371000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4777000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4863000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4197000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4027000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3889000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3929000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3676000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3390000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3399000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3579000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3399000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3525000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3636000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1615000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1605000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1657000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1755000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1719000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1652000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1617000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1627000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1647000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2306000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2476000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2642000</v>
       </c>
       <c r="G49" s="3">
         <v>2642000</v>
       </c>
       <c r="H49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="I49" s="3">
         <v>1214000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1216000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1264000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1522000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1451000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>844000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>339000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>348000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>353000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>371000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>384000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>382000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>399000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>421000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>452000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>209000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>211000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>208000</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>167000</v>
       </c>
       <c r="AA49" s="3">
         <v>167000</v>
       </c>
       <c r="AB49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,88 +4006,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E52" s="3">
         <v>125000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>144000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>140000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>165000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>197000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>187000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>117000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>136000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>446000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>432000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>396000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>391000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>382000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>354000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>368000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>309000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>333000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>490000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>469000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>453000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>424000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>416000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11826000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11696000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12054000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12639000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13223000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11506000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11304000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10837000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10875000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10386000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6963000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6577000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6950000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6710000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6725000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6762000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4610000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4691000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4730000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4894000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4287000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4460000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4021000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3977000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3727000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,93 +4319,97 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E57" s="3">
         <v>673000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>730000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>592000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>830000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>756000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>712000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>571000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>708000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>634000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>566000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>466000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>623000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>563000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>588000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>556000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>619000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>551000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>584000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>529000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>420000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>575000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>492000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>509000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>480000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>4000</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>4000</v>
@@ -4285,13 +4418,13 @@
         <v>4000</v>
       </c>
       <c r="G58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H58" s="3">
         <v>3000</v>
       </c>
       <c r="I58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J58" s="3">
         <v>2000</v>
@@ -4312,16 +4445,16 @@
         <v>2000</v>
       </c>
       <c r="P58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>2000</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4332,8 +4465,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4341,197 +4474,206 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1000</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1427000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1419000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1489000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1550000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1435000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1402000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1349000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1357000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1371000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1155000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1015000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1111000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1037000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1029000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>634000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>641000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>622000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>691000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>620000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>637000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>510000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>559000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>523000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2166000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2104000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2153000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2085000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2383000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2194000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2116000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1922000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2067000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2007000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1723000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1483000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1736000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1648000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1626000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1587000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1253000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1192000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1206000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1220000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1024000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1212000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1002000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1068000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1004000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>41000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>34000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>28000</v>
       </c>
       <c r="J61" s="3">
         <v>28000</v>
@@ -4540,138 +4682,144 @@
         <v>28000</v>
       </c>
       <c r="L61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="M61" s="3">
         <v>25000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>29000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>28000</v>
       </c>
       <c r="X61" s="3">
         <v>28000</v>
       </c>
       <c r="Y61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>27000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>28000</v>
       </c>
       <c r="AA61" s="3">
         <v>28000</v>
       </c>
       <c r="AB61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AC61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2458000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2388000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2560000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2805000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2878000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2401000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2332000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2274000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2309000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2147000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1929000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1915000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2013000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1924000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1996000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2089000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>355000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>385000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>396000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>442000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>464000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>274000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>260000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>251000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>252000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5344000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5278000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5525000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5746000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6167000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4898000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4729000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4462000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4669000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4424000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3760000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3523000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3873000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3685000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3728000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3776000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1737000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1707000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1727000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1787000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1522000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1589000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1352000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1397000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1350000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2228000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2083000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2941000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2892000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2468000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2415000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2285000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2105000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2004000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1565000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1433000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1416000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1371000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1193000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1060000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>944000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>916000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>751000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>646000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>397000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>533000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>322000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>215000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>40000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6482000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6418000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6529000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6893000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7056000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6608000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6575000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6375000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6206000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5962000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3203000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3054000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3077000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3025000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2997000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2986000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2873000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2984000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3003000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3107000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2765000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2871000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2669000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2580000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2377000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E81" s="3">
         <v>206000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>83000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>475000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>104000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>181000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>230000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>151000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>439000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>132000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>62000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>90000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>223000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>178000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>222000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>74000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>203000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>143000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>288000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>398000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>211000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>107000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>175000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>88000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,88 +6212,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E83" s="3">
         <v>150000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>153000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>164000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>136000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>128000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>124000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>128000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>123000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>113000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>105000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>109000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>105000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>106000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>111000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>102000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>108000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>117000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>118000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>409000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>105000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>96000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>64000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>130000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E89" s="3">
         <v>720000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>438000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>57000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>301000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>442000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>331000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>215000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>447000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>392000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>60000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>140000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>388000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>313000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>344000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>160000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>354000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>268000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>551000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>884000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>514000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>116000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>357000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>42000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,88 +6824,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-162000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-142000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-205000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-207000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-179000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-138000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-165000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-135000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-99000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-98000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-87000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-125000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-102000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-110000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-111000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-129000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-119000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-111000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-415000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-85000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-168000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,88 +7071,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-541000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-112000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-132000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-264000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-347000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-776000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-763000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-357000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-101000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-267000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-121000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-139000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-267000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-557000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>138000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-259000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-173000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-239000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,19 +7187,20 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-51000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-50000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-51000</v>
       </c>
       <c r="G96" s="3">
         <v>-51000</v>
@@ -6979,19 +7212,19 @@
         <v>-51000</v>
       </c>
       <c r="J96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="K96" s="3">
         <v>-50000</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-45000</v>
@@ -7003,26 +7236,26 @@
         <v>-45000</v>
       </c>
       <c r="R96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="S96" s="3">
         <v>-46000</v>
       </c>
       <c r="T96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="U96" s="3">
         <v>-38000</v>
       </c>
       <c r="V96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-39000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-38000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7035,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,244 +7517,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-70000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-239000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-274000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-93000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-101000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-55000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-86000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2203000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-112000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-146000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-113000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-132000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-135000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-51000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-185000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>342000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-45000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-34000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>23000</v>
       </c>
       <c r="L101" s="3">
         <v>23000</v>
       </c>
       <c r="M101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-28000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-51000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>26000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>32000</v>
       </c>
       <c r="X101" s="3">
         <v>32000</v>
       </c>
       <c r="Y101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E102" s="3">
         <v>64000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-89000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-142000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>125000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-74000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-624000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1101000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-376000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-309000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>68000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-68000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>73000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-57000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>259000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>174000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>585000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-182000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>189000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>135000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,386 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2917000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2088000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2685000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2128000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2668000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2291000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2554000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2451000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2557000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2259000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2348000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1902000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1754000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2029000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2319000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2124000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2304000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1914000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2212000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2068000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2221000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7769000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2038000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1594000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1284000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1978000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1267000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1466000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1237000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1534000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1402000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1514000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1386000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1417000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1278000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1282000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1045000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1176000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1273000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1211000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1271000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1110000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1196000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1133000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1196000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4169000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>978000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>811000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>602000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1027000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E10" s="3">
         <v>821000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1219000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>891000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1134000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>889000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1040000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1065000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1140000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>981000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1066000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>802000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>709000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>853000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1046000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>913000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1033000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>804000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1016000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>935000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1025000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3600000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1060000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>783000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>682000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>951000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,91 +1244,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-597000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-238000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>17000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-98000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>74000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>16000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>32000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,34 +1357,34 @@
         <v>1000</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>1000</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>1000</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1375,8 +1398,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1393,8 +1416,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2499000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2024000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2345000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2023000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2451000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1644000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2366000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2208000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2206000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2079000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1792000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1774000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1657000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1935000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2019000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1920000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2001000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1830000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1943000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1875000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1826000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6991000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1721000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1451000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1030000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1920000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E18" s="3">
         <v>64000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>340000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>105000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>217000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>647000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>188000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>243000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>351000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>180000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>556000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>128000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>97000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>204000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>303000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>269000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>193000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>395000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>778000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>317000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>143000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>254000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>58000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,200 +1651,207 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-51000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-33000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>44000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>49000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>53000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>27000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>10000</v>
       </c>
       <c r="V20" s="3">
         <v>10000</v>
       </c>
       <c r="W20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="X20" s="3">
         <v>8000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>25000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E21" s="3">
         <v>215000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>477000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>269000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>330000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>772000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>283000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>382000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>473000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>347000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>718000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>286000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>207000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>234000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>427000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>337000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>433000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>167000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>387000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>320000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>521000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1212000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>428000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>244000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>320000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>213000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1828,20 +1868,20 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1867,174 +1907,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E23" s="3">
         <v>80000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>326000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>115000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>166000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>635000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>155000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>257000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>345000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>224000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>605000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>181000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>128000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>322000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>231000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>322000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>65000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>279000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>203000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>403000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>803000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>323000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>148000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>256000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>83000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E24" s="3">
         <v>24000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>97000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>159000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>44000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>64000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>155000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>87000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>85000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>53000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>107000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>215000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>102000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>35000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>76000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E26" s="3">
         <v>56000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>229000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>84000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>111000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>476000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>111000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>193000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>243000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>161000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>450000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>235000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>185000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>237000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>42000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>212000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>150000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>296000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>588000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>221000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>113000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>180000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>90000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E27" s="3">
         <v>53000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>206000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>83000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>475000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>104000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>181000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>230000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>151000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>439000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>132000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>62000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>90000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>223000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>178000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>230000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>203000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>143000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>288000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>562000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>211000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>107000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>175000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>88000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2397,8 +2458,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2406,8 +2467,8 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2416,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-8000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>36000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2430,11 +2491,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2448,8 +2509,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,174 +2681,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>51000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>33000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-44000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-49000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-53000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-27000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>19000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-10000</v>
       </c>
       <c r="V32" s="3">
         <v>-10000</v>
       </c>
       <c r="W32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-8000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E33" s="3">
         <v>53000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>206000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>83000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>475000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>104000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>181000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>230000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>151000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>439000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>132000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>62000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>90000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>223000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>178000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>222000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>74000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>203000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>143000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>288000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>398000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>211000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>107000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>175000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>88000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E35" s="3">
         <v>53000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>206000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>83000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>475000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>104000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>181000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>230000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>151000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>439000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>132000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>62000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>90000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>223000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>178000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>222000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>74000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>203000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>143000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>288000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>398000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>211000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>107000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>175000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>88000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,755 +3182,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1130000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1211000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1147000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1047000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1136000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1278000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1209000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1084000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1158000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1782000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>674000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1048000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1355000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1296000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1247000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1266000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1334000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1261000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1318000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1059000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1477000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>892000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1074000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>885000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1870000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2022000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2826000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2506000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2622000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2860000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3099000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3139000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3026000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3105000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2424000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1034000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>490000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>611000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>364000</v>
-      </c>
-      <c r="R42" s="3">
-        <v>284000</v>
       </c>
       <c r="S42" s="3">
         <v>284000</v>
       </c>
       <c r="T42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="U42" s="3">
         <v>122000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>198000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>278000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>276000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>205000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>91000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>310000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>180000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>79000</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E43" s="3">
         <v>205000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>103000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>126000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>98000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>112000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>132000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>137000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>146000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>83000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>111000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>130000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>123000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>129000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>90000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>107000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>95000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>119000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>81000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>74000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>68000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>74000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E44" s="3">
         <v>417000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>321000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>353000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>345000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>432000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>390000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>380000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>345000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>398000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>346000</v>
       </c>
       <c r="N44" s="3">
         <v>346000</v>
       </c>
       <c r="O44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="P44" s="3">
         <v>317000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>380000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>317000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>309000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>280000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>307000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>270000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>276000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>261000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>297000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>246000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>266000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>231000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>268000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E45" s="3">
         <v>166000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>249000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>444000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>154000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>176000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>183000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>175000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>176000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>129000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>162000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>166000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>112000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>93000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>118000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>133000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>128000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>154000</v>
-      </c>
-      <c r="V45" s="3">
-        <v>171000</v>
       </c>
       <c r="W45" s="3">
         <v>171000</v>
       </c>
       <c r="X45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="Y45" s="3">
         <v>122000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>159000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>150000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>169000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>120000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3714000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3940000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4710000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4576000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4266000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4716000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5082000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5040000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4756000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4936000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2303000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2045000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2259000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2256000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2137000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2067000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1952000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2046000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2093000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2121000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1802000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2054000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1692000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1722000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1426000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1136000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>436000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>487000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>814000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>837000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>816000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>834000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>811000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>355000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>323000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>305000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>348000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>332000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>306000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>301000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>293000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>307000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>273000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>250000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>233000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>95000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>74000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>51000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>37000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>71000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4286000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4337000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4119000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4371000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4777000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4863000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4197000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4027000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3889000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3929000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3676000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3390000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3399000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3579000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3399000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3525000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3636000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1615000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1605000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1657000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1755000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1719000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1652000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1617000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1627000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1647000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2310000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2270000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2306000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2476000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2642000</v>
       </c>
       <c r="H49" s="3">
         <v>2642000</v>
       </c>
       <c r="I49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="J49" s="3">
         <v>1214000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1216000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1264000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1522000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1451000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>844000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>339000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>348000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>353000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>371000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>384000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>382000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>399000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>421000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>452000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>209000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>211000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>208000</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>167000</v>
       </c>
       <c r="AB49" s="3">
         <v>167000</v>
       </c>
       <c r="AC49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="AD49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,91 +4126,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E52" s="3">
         <v>143000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>125000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>144000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>140000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>165000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>197000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>187000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>133000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>136000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>446000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>432000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>396000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>391000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>382000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>354000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>368000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>309000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>333000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>490000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>469000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>453000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>424000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>416000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11963000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11826000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11696000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12054000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12639000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13223000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11506000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11304000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10837000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10875000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10386000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6963000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6577000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6950000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6710000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6725000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6762000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4610000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4691000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4730000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4894000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4287000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4460000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4021000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3977000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3727000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,99 +4450,103 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E57" s="3">
         <v>727000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>673000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>730000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>592000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>830000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>756000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>712000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>571000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>708000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>634000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>566000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>466000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>623000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>563000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>588000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>556000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>619000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>551000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>584000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>529000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>420000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>575000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>492000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>509000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>480000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F58" s="3">
         <v>4000</v>
@@ -4421,13 +4555,13 @@
         <v>4000</v>
       </c>
       <c r="H58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I58" s="3">
         <v>3000</v>
       </c>
       <c r="J58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
@@ -4448,16 +4582,16 @@
         <v>2000</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>2000</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -4468,8 +4602,8 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4477,206 +4611,215 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1000</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1439000</v>
+        <v>1421000</v>
       </c>
       <c r="E59" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1427000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1419000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1489000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1550000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1435000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1402000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1349000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1357000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1371000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1155000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1015000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1111000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1084000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1037000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1029000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>634000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>641000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>622000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>691000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>620000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>637000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>510000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>559000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>523000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2166000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2104000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2153000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2085000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2383000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2194000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2116000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1922000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2067000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2007000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1723000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1483000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1736000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1648000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1626000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1587000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1253000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1192000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1206000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1220000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1024000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1212000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1002000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1068000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1004000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E61" s="3">
         <v>42000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>41000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>40000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>28000</v>
       </c>
       <c r="K61" s="3">
         <v>28000</v>
@@ -4685,141 +4828,147 @@
         <v>28000</v>
       </c>
       <c r="M61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N61" s="3">
         <v>25000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>29000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>28000</v>
       </c>
       <c r="Y61" s="3">
         <v>28000</v>
       </c>
       <c r="Z61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>27000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>28000</v>
       </c>
       <c r="AB61" s="3">
         <v>28000</v>
       </c>
       <c r="AC61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AD61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2458000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2388000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2560000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2805000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2878000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2401000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2332000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2274000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2309000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2147000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1929000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1915000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2013000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1924000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1996000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2089000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>355000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>385000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>396000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>442000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>464000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>274000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>260000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>251000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>252000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5285000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5344000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5278000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5525000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5746000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6167000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4898000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4729000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4462000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4669000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4424000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3760000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3523000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3873000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3685000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3728000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3776000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1737000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1707000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1727000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1787000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1522000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1589000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1352000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1397000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1350000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2374000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2191000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2228000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2083000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2941000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2892000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2468000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2415000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2285000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2105000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2004000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1565000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1433000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1416000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1371000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1193000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1060000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>944000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>916000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>751000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>646000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>397000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>533000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>322000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>215000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>40000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6678000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6482000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6418000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6529000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6893000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7056000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6608000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6575000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6375000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6206000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5962000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3203000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3054000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3077000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3025000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2997000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2986000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2873000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2984000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3003000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3107000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2765000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2871000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2669000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2580000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2377000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E81" s="3">
         <v>53000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>206000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>83000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>475000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>104000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>181000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>230000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>151000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>439000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>132000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>62000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>90000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>223000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>178000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>222000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>74000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>203000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>143000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>288000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>398000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>211000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>107000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>175000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>88000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,91 +6411,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E83" s="3">
         <v>135000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>150000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>153000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>164000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>136000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>128000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>124000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>128000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>123000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>113000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>105000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>109000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>106000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>105000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>111000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>102000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>108000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>117000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>118000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>409000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>105000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>96000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>64000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>130000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E89" s="3">
         <v>84000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>720000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>438000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>171000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>57000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>301000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>442000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>331000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>215000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>447000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>392000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>60000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>140000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>388000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>313000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>344000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>160000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>354000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>268000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>551000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>884000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>514000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>116000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>357000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>42000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-170000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-162000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-142000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-205000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-207000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-179000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-138000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-165000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-135000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-99000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-125000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-98000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-102000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-110000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-111000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-129000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-119000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-111000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-415000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-85000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-103000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-168000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-429000</v>
+      </c>
+      <c r="E94" s="3">
         <v>71000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-541000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-112000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-132000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-264000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-347000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-776000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-763000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-357000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-185000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-101000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-267000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-121000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-139000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-267000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-557000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>138000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-259000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-173000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-239000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,22 +7421,23 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-50000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-51000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-50000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-51000</v>
       </c>
       <c r="H96" s="3">
         <v>-51000</v>
@@ -7215,19 +7449,19 @@
         <v>-51000</v>
       </c>
       <c r="K96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="L96" s="3">
         <v>-50000</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-45000</v>
@@ -7239,26 +7473,26 @@
         <v>-45000</v>
       </c>
       <c r="S96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="T96" s="3">
         <v>-46000</v>
       </c>
       <c r="U96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="V96" s="3">
         <v>-38000</v>
       </c>
       <c r="W96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-39000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7271,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,253 +7763,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-261000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-70000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-239000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-274000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-93000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-101000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-64000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-86000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2203000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-109000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-146000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-113000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-132000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-135000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-51000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-185000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>342000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>25000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-45000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-34000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>23000</v>
       </c>
       <c r="M101" s="3">
         <v>23000</v>
       </c>
       <c r="N101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-26000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-28000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-51000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>26000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>32000</v>
       </c>
       <c r="Y101" s="3">
         <v>32000</v>
       </c>
       <c r="Z101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-89000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-142000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>69000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>125000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-74000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-624000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1101000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-376000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-309000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>68000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-68000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>73000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-57000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>259000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>174000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>585000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-182000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>189000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>135000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2654000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2917000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2088000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2685000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2128000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2668000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2291000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2554000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2451000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2557000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2259000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2348000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1902000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1754000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2029000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2319000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2124000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2304000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1914000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2212000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2068000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2221000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7769000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2038000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1594000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1284000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1978000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1609000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1267000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1466000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1237000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1534000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1402000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1514000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1386000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1417000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1278000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1282000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1176000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1273000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1211000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1271000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1110000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1196000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1133000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1196000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4169000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>978000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>811000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>602000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1027000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1308000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>821000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1219000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>891000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1134000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>889000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1040000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1065000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1140000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>981000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1066000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>802000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>709000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>853000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1046000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>913000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1033000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>804000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1016000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>935000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1025000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3600000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1060000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>783000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>682000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>951000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,94 +1264,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-597000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-238000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>24000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>26000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>17000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-98000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>74000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>16000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>32000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1360,34 +1383,34 @@
         <v>1000</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>1000</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>1000</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1401,8 +1424,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1419,8 +1442,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2397000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2499000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2024000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2345000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2023000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2451000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1644000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2366000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2208000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2206000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2079000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1792000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1774000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1657000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1935000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2019000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1920000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2001000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1830000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1943000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1875000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1826000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6991000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1721000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1451000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1030000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1920000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E18" s="3">
         <v>418000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>64000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>340000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>105000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>217000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>647000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>188000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>243000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>351000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>180000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>556000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>128000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>204000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>303000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>84000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>269000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>193000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>395000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>778000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>317000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>143000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>254000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>58000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,180 +1685,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E20" s="3">
         <v>20000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-51000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>44000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>49000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>53000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>22000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>10000</v>
       </c>
       <c r="W20" s="3">
         <v>10000</v>
       </c>
       <c r="X20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>8000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>25000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E21" s="3">
         <v>554000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>215000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>477000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>269000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>330000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>772000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>283000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>382000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>473000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>347000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>718000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>286000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>207000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>234000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>427000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>337000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>433000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>167000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>387000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>320000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>521000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1212000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>428000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>244000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>320000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>213000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1833,28 +1873,28 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1871,20 +1911,20 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1910,180 +1950,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E23" s="3">
         <v>437000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>80000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>326000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>115000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>166000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>635000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>155000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>257000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>345000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>224000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>605000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>181000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>128000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>322000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>231000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>322000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>65000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>279000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>203000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>403000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>803000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>323000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>148000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>256000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>83000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E24" s="3">
         <v>125000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>97000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>159000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>44000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>102000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>155000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>87000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>85000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>53000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>107000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>215000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>102000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>35000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>76000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E26" s="3">
         <v>312000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>229000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>84000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>111000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>476000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>111000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>193000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>243000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>161000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>450000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>66000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>235000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>185000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>237000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>212000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>150000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>296000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>588000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>221000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>113000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>180000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>90000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E27" s="3">
         <v>289000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>206000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>475000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>104000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>181000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>230000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>151000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>439000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>132000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>62000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>90000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>223000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>178000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>230000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>203000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>143000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>288000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>562000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>211000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>107000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>175000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>88000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2461,8 +2522,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2470,8 +2531,8 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2480,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-8000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>36000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2494,11 +2555,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,180 +2751,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>51000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-44000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-49000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-53000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-22000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>19000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-10000</v>
       </c>
       <c r="W32" s="3">
         <v>-10000</v>
       </c>
       <c r="X32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E33" s="3">
         <v>289000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>206000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>475000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>104000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>181000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>230000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>151000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>439000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>132000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>62000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>90000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>223000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>178000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>222000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>203000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>143000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>288000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>398000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>211000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>107000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>175000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>88000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E35" s="3">
         <v>289000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>206000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>475000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>104000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>181000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>230000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>151000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>439000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>132000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>62000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>90000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>223000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>178000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>222000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>203000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>143000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>288000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>398000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>211000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>107000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>175000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>88000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,782 +3269,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1111000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1130000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1211000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1147000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1047000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1136000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1278000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1209000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1084000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1158000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1782000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>674000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1048000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1046000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1355000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1296000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1247000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1266000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1334000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1261000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1318000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1059000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1477000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>892000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1074000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>885000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1762000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1870000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2022000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2826000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2506000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2622000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2860000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3099000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3139000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3026000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3105000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2424000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1034000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>490000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>611000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>364000</v>
-      </c>
-      <c r="S42" s="3">
-        <v>284000</v>
       </c>
       <c r="T42" s="3">
         <v>284000</v>
       </c>
       <c r="U42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="V42" s="3">
         <v>122000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>198000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>278000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>276000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>205000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>91000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>310000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>180000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>79000</v>
       </c>
-      <c r="AD42" s="3" t="s">
+      <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E43" s="3">
         <v>229000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>205000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>103000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>126000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>98000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>112000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>132000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>137000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>146000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>83000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>111000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>130000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>123000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>129000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>90000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>107000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>95000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>119000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>81000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>74000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>68000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>74000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E44" s="3">
         <v>378000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>417000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>321000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>353000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>345000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>432000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>390000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>380000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>345000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>398000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>346000</v>
       </c>
       <c r="O44" s="3">
         <v>346000</v>
       </c>
       <c r="P44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>317000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>380000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>317000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>309000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>280000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>307000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>270000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>276000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>261000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>297000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>246000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>266000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>231000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>268000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E45" s="3">
         <v>126000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>166000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>249000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>444000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>154000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>176000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>183000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>175000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>176000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>129000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>162000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>166000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>93000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>118000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>133000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>128000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>154000</v>
-      </c>
-      <c r="W45" s="3">
-        <v>171000</v>
       </c>
       <c r="X45" s="3">
         <v>171000</v>
       </c>
       <c r="Y45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="Z45" s="3">
         <v>122000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>159000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>150000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>169000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>120000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3687000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3714000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3940000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4710000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4576000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4266000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4716000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5082000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5040000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4756000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4936000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2303000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2045000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2259000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2256000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2137000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2067000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1952000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2046000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2093000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2121000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1802000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2054000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1692000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1722000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1426000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1535000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1136000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>436000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>487000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>814000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>837000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>816000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>834000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>811000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>355000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>323000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>305000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>348000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>332000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>306000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>301000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>293000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>307000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>273000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>250000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>233000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>95000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>74000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>51000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>37000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>71000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4286000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4337000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4119000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4371000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4777000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4863000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4197000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4027000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3889000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3929000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3676000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3390000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3399000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3579000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3399000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3525000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3636000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1615000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1605000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1657000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1755000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1719000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1652000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1617000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1627000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1647000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2184000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2310000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2270000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2306000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2476000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2642000</v>
       </c>
       <c r="I49" s="3">
         <v>2642000</v>
       </c>
       <c r="J49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1214000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1216000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1264000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1522000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1451000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>844000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>339000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>348000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>353000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>371000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>384000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>382000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>399000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>421000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>452000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>209000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>211000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>208000</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>167000</v>
       </c>
       <c r="AC49" s="3">
         <v>167000</v>
       </c>
       <c r="AD49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="AE49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,94 +4246,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E52" s="3">
         <v>118000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>143000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>125000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>144000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>140000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>165000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>197000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>187000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>117000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>133000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>136000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>446000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>432000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>396000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>391000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>382000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>354000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>368000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>309000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>333000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>490000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>469000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>453000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>424000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>416000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11675000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11963000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11826000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11696000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12054000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12639000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13223000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11506000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11304000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10837000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10875000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10386000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6963000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6577000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6950000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6710000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6725000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6762000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4610000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4691000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4730000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4894000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4287000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4460000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4021000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3977000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3727000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,94 +4581,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>740000</v>
+      </c>
+      <c r="E57" s="3">
         <v>674000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>727000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>673000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>730000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>592000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>830000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>756000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>712000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>571000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>708000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>634000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>566000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>466000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>623000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>563000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>588000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>556000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>619000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>551000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>584000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>529000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>420000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>575000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>492000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>509000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>480000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4549,7 +4683,7 @@
         <v>5000</v>
       </c>
       <c r="F58" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G58" s="3">
         <v>4000</v>
@@ -4558,13 +4692,13 @@
         <v>4000</v>
       </c>
       <c r="I58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="J58" s="3">
         <v>3000</v>
       </c>
       <c r="K58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L58" s="3">
         <v>2000</v>
@@ -4585,16 +4719,16 @@
         <v>2000</v>
       </c>
       <c r="R58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>2000</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4605,8 +4739,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4614,189 +4748,198 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1000</v>
       </c>
-      <c r="AD58" s="3" t="s">
+      <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1407000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1421000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1434000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1427000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1419000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1489000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1550000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1435000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1402000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1349000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1357000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1371000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1155000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1015000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1111000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1084000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1037000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1029000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>634000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>641000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>622000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>691000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>620000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>637000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>510000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>559000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>523000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2152000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2166000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2104000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2153000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2085000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2383000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2194000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2116000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1922000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2067000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2007000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1723000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1736000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1648000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1626000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1587000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1253000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1192000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1206000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1220000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1024000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1212000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1002000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1068000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1004000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4804,25 +4947,25 @@
         <v>41000</v>
       </c>
       <c r="E61" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F61" s="3">
         <v>42000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>41000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>28000</v>
       </c>
       <c r="L61" s="3">
         <v>28000</v>
@@ -4831,144 +4974,150 @@
         <v>28000</v>
       </c>
       <c r="N61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="O61" s="3">
         <v>25000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29000</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>28000</v>
       </c>
       <c r="Z61" s="3">
         <v>28000</v>
       </c>
       <c r="AA61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AB61" s="3">
         <v>27000</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>28000</v>
       </c>
       <c r="AC61" s="3">
         <v>28000</v>
       </c>
       <c r="AD61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AE61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2265000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2406000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2458000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2388000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2560000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2805000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2878000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2401000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2332000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2274000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2309000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2147000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1929000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1915000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2013000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1924000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1996000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2089000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>355000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>385000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>396000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>442000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>464000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>274000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>260000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>251000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>252000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5126000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5285000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5344000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5278000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5525000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5746000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6167000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4898000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4729000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4462000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4669000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4424000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3760000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3523000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3873000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3685000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3728000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3776000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1737000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1707000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1727000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1787000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1522000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1589000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1352000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1397000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1350000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2465000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2374000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2191000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2228000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2083000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2941000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2892000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2468000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2415000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2285000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2105000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2004000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1565000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1433000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1416000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1371000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1193000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1060000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>944000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>916000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>751000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>646000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>397000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>533000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>322000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>215000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>40000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6549000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6678000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6482000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6418000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6529000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6893000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7056000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6608000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6575000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6375000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6206000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5962000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3203000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3054000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3077000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3025000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2997000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2986000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2873000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2984000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3003000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3107000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2765000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2871000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2669000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2580000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2377000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E81" s="3">
         <v>289000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>206000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>475000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>104000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>181000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>230000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>151000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>439000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>132000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>62000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>90000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>223000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>178000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>222000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>203000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>143000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>288000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>398000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>211000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>107000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>175000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>88000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,94 +6610,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E83" s="3">
         <v>116000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>135000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>150000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>153000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>164000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>136000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>128000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>124000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>128000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>123000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>113000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>105000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>109000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>106000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>105000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>106000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>111000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>102000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>108000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>117000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>118000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>409000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>105000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>96000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>64000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>130000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E89" s="3">
         <v>507000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>720000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>438000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>171000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>57000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>301000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>442000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>331000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>215000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>447000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>392000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>140000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>388000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>313000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>344000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>160000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>354000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>268000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>551000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>884000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>514000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>116000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>357000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>42000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,94 +7266,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-179000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-170000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-162000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-142000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-205000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-207000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-179000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-165000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-135000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-99000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-98000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-125000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-98000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-102000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-110000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-111000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-129000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-119000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-111000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-415000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-85000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-103000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-168000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-429000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>71000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-541000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-112000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-132000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-264000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-347000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-776000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-763000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-357000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-185000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-101000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-267000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-121000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-139000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-267000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-557000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>138000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-259000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-173000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-239000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,8 +7655,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7431,16 +7665,16 @@
         <v>-54000</v>
       </c>
       <c r="E96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-50000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-51000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-50000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-51000</v>
       </c>
       <c r="I96" s="3">
         <v>-51000</v>
@@ -7452,19 +7686,19 @@
         <v>-51000</v>
       </c>
       <c r="L96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="M96" s="3">
         <v>-50000</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-45000</v>
@@ -7476,26 +7710,26 @@
         <v>-45000</v>
       </c>
       <c r="T96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="U96" s="3">
         <v>-46000</v>
       </c>
       <c r="V96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="W96" s="3">
         <v>-38000</v>
       </c>
       <c r="X96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-39000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7508,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,262 +8009,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-99000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-261000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-70000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-239000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-274000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-93000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-101000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-86000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2203000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-112000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-109000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-146000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-113000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-132000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-135000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-51000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-185000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-99000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>342000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-45000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-34000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>23000</v>
       </c>
       <c r="N101" s="3">
         <v>23000</v>
       </c>
       <c r="O101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-26000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-17000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-28000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-51000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>26000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>32000</v>
       </c>
       <c r="Z101" s="3">
         <v>32000</v>
       </c>
       <c r="AA101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>6000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-81000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>64000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-142000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>69000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>125000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-74000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-624000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1101000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-376000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-309000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>68000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-68000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>73000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-57000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>259000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>174000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>585000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-182000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>189000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>135000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>242000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>YUMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,399 +665,412 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2914000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2654000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2917000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2088000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2685000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2128000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2668000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2291000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2554000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2451000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2557000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2259000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2348000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1902000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1754000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2029000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2319000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2124000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2304000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1914000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2212000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2068000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2221000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7769000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2038000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1594000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1284000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1978000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1883000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1522000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1609000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1267000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1466000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1237000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1534000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1402000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1514000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1386000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1417000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1278000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1282000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1045000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1176000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1273000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1211000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1271000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1110000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1196000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1133000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1196000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4169000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>978000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>811000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>602000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1027000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1132000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1308000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>821000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1219000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>891000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1134000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>889000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1040000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1065000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1140000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>981000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1066000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>802000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>709000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>853000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1046000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>913000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1033000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>804000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1016000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>935000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1025000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3600000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1060000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>783000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>682000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>951000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>993000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,8 +1102,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1178,8 +1192,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,97 +1284,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-597000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-238000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>26000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>17000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-98000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>74000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>16000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>32000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,34 +1409,34 @@
         <v>1000</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>1000</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>1000</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>1000</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1427,8 +1450,8 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1445,8 +1468,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1475,186 +1501,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2591000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2397000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2499000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2024000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2345000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2023000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2451000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1644000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2366000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2208000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2206000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2079000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1792000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1774000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1657000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1935000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2019000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1920000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2001000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1830000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1943000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1875000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1826000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6991000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1721000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1451000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1030000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1920000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1597000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E18" s="3">
         <v>257000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>418000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>340000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>105000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>217000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>647000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>188000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>243000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>351000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>180000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>556000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>128000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>94000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>204000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>303000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>84000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>269000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>193000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>395000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>778000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>317000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>143000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>254000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>58000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1686,186 +1719,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E20" s="3">
         <v>30000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-51000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>44000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>49000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>53000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>22000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>27000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-19000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>10000</v>
       </c>
       <c r="X20" s="3">
         <v>10000</v>
       </c>
       <c r="Y20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>8000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>5000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>25000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E21" s="3">
         <v>399000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>554000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>215000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>477000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>269000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>330000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>772000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>283000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>382000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>473000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>347000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>718000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>286000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>207000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>234000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>427000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>337000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>433000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>167000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>387000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>320000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>521000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1212000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>428000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>244000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>320000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>213000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1876,28 +1916,28 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1914,20 +1954,20 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1953,186 +1993,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E23" s="3">
         <v>286000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>437000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>80000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>326000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>115000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>166000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>635000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>155000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>257000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>345000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>224000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>605000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>181000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>128000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>322000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>231000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>322000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>65000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>279000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>203000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>403000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>803000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>323000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>148000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>256000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>83000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E24" s="3">
         <v>71000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>125000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>97000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>159000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>102000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>155000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>87000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>85000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>53000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>107000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>215000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>102000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>35000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>76000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2220,186 +2269,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E26" s="3">
         <v>215000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>312000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>229000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>84000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>111000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>476000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>111000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>193000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>243000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>161000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>450000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>136000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>66000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>235000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>185000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>237000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>212000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>150000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>296000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>588000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>221000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>113000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>180000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>90000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E27" s="3">
         <v>197000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>289000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>206000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>475000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>181000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>230000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>151000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>439000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>132000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>62000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>90000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>223000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>178000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>230000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>203000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>143000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>288000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>562000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>211000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>107000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>175000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>88000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2487,8 +2545,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2525,8 +2586,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2534,8 +2595,8 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2544,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-8000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>36000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2558,11 +2619,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-164000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2576,8 +2637,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2665,8 +2729,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2754,186 +2821,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-30000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>51000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-44000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-49000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-22000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-27000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>19000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-10000</v>
       </c>
       <c r="X32" s="3">
         <v>-10000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E33" s="3">
         <v>197000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>289000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>206000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>475000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>181000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>230000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>151000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>439000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>132000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>62000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>90000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>223000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>178000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>222000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>203000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>143000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>288000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>398000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>211000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>107000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>175000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>88000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3021,191 +3097,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E35" s="3">
         <v>197000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>289000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>206000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>475000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>181000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>230000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>151000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>439000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>132000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>62000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>90000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>223000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>178000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>222000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>203000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>143000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>288000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>398000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>211000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>107000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>175000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>88000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3237,8 +3322,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3270,809 +3356,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1189000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1111000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1130000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1211000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1147000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1047000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1136000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1278000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1209000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1084000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1158000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1782000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>674000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1048000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1046000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1355000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1296000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1247000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1266000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1334000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1261000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1318000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1059000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1477000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>892000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1074000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>885000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1762000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1870000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2022000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2826000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2506000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2622000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2860000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3099000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3139000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3026000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3105000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2424000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>490000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>611000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>364000</v>
-      </c>
-      <c r="T42" s="3">
-        <v>284000</v>
       </c>
       <c r="U42" s="3">
         <v>284000</v>
       </c>
       <c r="V42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="W42" s="3">
         <v>122000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>198000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>278000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>276000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>205000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>91000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>310000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>180000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>79000</v>
       </c>
-      <c r="AE42" s="3" t="s">
+      <c r="AF42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E43" s="3">
         <v>216000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>229000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>205000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>103000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>126000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>98000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>112000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>132000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>137000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>125000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>146000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>83000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>78000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>129000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>111000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>130000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>123000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>129000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>90000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>107000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>95000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>119000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>81000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>74000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>68000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>74000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E44" s="3">
         <v>396000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>378000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>417000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>321000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>353000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>345000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>432000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>390000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>380000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>345000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>398000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>346000</v>
       </c>
       <c r="P44" s="3">
         <v>346000</v>
       </c>
       <c r="Q44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="R44" s="3">
         <v>317000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>380000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>317000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>309000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>280000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>307000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>270000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>276000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>261000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>297000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>246000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>266000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>231000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>268000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>218000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E45" s="3">
         <v>124000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>126000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>166000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>249000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>444000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>154000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>176000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>183000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>175000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>176000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>129000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>162000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>166000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>93000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>118000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>133000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>128000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>154000</v>
-      </c>
-      <c r="X45" s="3">
-        <v>171000</v>
       </c>
       <c r="Y45" s="3">
         <v>171000</v>
       </c>
       <c r="Z45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="AA45" s="3">
         <v>122000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>159000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>150000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>169000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>120000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3923000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3687000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3714000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3940000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4710000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4576000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4266000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4716000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5082000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5040000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4756000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4936000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4800000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2303000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2045000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2259000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2256000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2137000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2067000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1952000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2046000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2093000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2121000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1802000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2054000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1692000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1722000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1426000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1158000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1651000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1593000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1535000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1136000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>436000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>487000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>814000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>837000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>816000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>834000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>811000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>355000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>323000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>305000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>348000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>332000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>306000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>301000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>293000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>307000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>273000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>250000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>233000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>95000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>74000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>51000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>37000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>71000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4115000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4286000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4337000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4119000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4371000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4777000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4863000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4197000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4027000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3889000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3929000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3676000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3390000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3399000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3579000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3399000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3525000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3636000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1615000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1605000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1657000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1755000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1719000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1652000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1617000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1627000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1647000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1707000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2168000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2184000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2310000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2270000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2306000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2476000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2642000</v>
       </c>
       <c r="J49" s="3">
         <v>2642000</v>
       </c>
       <c r="K49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1214000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1216000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1264000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1522000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1451000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>844000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>339000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>348000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>353000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>371000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>384000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>382000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>399000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>421000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>452000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>209000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>211000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>208000</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>167000</v>
       </c>
       <c r="AD49" s="3">
         <v>167000</v>
       </c>
       <c r="AE49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="AF49" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4160,8 +4274,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4249,97 +4366,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E52" s="3">
         <v>96000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>118000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>143000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>125000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>144000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>140000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>165000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>197000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>187000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>117000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>133000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>136000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>446000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>432000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>396000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>391000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>382000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>354000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>368000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>309000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>333000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>490000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>469000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>453000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>424000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>416000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4427,97 +4550,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12070000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11675000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11963000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11826000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11696000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12054000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12639000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13223000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11506000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11304000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10837000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10875000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10386000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6963000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6577000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6950000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6710000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6725000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6762000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4610000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4691000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4730000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4894000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4287000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4460000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4021000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3977000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3727000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3463000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4549,8 +4678,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4582,102 +4712,106 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E57" s="3">
         <v>740000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>674000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>727000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>673000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>730000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>592000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>830000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>756000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>712000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>571000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>708000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>634000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>566000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>466000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>623000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>563000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>588000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>556000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>619000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>551000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>584000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>529000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>420000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>575000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>492000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>509000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>480000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>214000</v>
       </c>
       <c r="E58" s="3">
         <v>5000</v>
@@ -4686,7 +4820,7 @@
         <v>5000</v>
       </c>
       <c r="G58" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H58" s="3">
         <v>4000</v>
@@ -4695,13 +4829,13 @@
         <v>4000</v>
       </c>
       <c r="J58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="K58" s="3">
         <v>3000</v>
       </c>
       <c r="L58" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M58" s="3">
         <v>2000</v>
@@ -4722,16 +4856,16 @@
         <v>2000</v>
       </c>
       <c r="S58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
         <v>2000</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4742,8 +4876,8 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4751,195 +4885,204 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1000</v>
       </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AF58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1407000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1421000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1434000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1427000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1419000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1489000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1550000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1435000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1402000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1349000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1357000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1371000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1155000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1015000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1111000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1084000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1037000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1029000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>634000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>641000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>622000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>691000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>620000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>637000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>510000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>559000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>523000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2152000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2166000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2104000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2153000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2085000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2383000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2194000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2116000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1922000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2067000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2007000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1723000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1483000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1736000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1648000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1626000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1587000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1253000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1192000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1206000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1220000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1024000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1212000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1002000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1068000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1004000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1092000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4950,25 +5093,25 @@
         <v>41000</v>
       </c>
       <c r="F61" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G61" s="3">
         <v>42000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>41000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>28000</v>
       </c>
       <c r="M61" s="3">
         <v>28000</v>
@@ -4977,147 +5120,153 @@
         <v>28000</v>
       </c>
       <c r="O61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="P61" s="3">
         <v>25000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>27000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>29000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>28000</v>
       </c>
       <c r="AA61" s="3">
         <v>28000</v>
       </c>
       <c r="AB61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AC61" s="3">
         <v>27000</v>
-      </c>
-      <c r="AC61" s="3">
-        <v>28000</v>
       </c>
       <c r="AD61" s="3">
         <v>28000</v>
       </c>
       <c r="AE61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AF61" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2298000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2265000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2406000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2458000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2388000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2560000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2805000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2878000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2401000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2332000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2274000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2309000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2147000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1929000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1915000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2013000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1924000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1996000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2089000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>355000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>385000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>396000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>442000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>464000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>274000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>260000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>251000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>252000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5205,8 +5354,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5294,8 +5446,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5383,97 +5538,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5499000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5126000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5285000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5344000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5278000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5525000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5746000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6167000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4898000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4729000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4462000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4669000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4424000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3760000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3523000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3873000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3685000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3728000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3776000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1737000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1707000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1727000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1787000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1522000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1589000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1352000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1397000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1350000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1419000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5505,8 +5666,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5594,8 +5756,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5683,8 +5848,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5772,8 +5940,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5861,97 +6032,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2526000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2465000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2374000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2191000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2228000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2083000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2941000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2892000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2468000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2415000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2285000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2105000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2004000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1565000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1433000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1416000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1371000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1193000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1060000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>944000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>916000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>751000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>646000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>397000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>533000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>322000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>215000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>40000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6039,8 +6216,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6128,8 +6308,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6217,97 +6400,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6571000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6549000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6678000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6482000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6418000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6529000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6893000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7056000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6608000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6575000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6375000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6206000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5962000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3203000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3054000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3077000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3025000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2997000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2986000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2873000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2984000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3003000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3107000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2765000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2871000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2669000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2580000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2377000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2044000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6395,191 +6584,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E81" s="3">
         <v>197000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>289000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>206000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>475000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>181000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>230000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>151000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>439000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>132000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>62000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>90000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>223000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>178000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>222000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>203000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>143000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>288000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>398000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>211000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>107000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>175000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>88000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6611,97 +6809,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E83" s="3">
         <v>112000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>116000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>135000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>150000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>153000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>164000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>136000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>128000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>124000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>123000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>113000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>105000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>109000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>105000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>106000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>111000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>102000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>108000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>117000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>118000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>409000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>105000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>96000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>64000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>130000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6789,8 +6991,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6878,8 +7083,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6967,8 +7175,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7056,8 +7267,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7145,97 +7359,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E89" s="3">
         <v>417000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>507000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>720000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>438000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>301000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>442000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>331000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>215000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>447000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>392000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>140000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>388000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>313000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>344000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>160000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>354000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>268000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>551000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>884000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>514000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>116000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>357000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>42000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7267,97 +7487,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-153000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-179000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-170000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-162000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-142000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-205000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-207000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-179000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-138000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-165000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-135000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-99000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-87000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-125000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-98000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-102000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-110000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-111000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-129000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-119000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-111000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-415000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-85000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-103000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-168000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-96000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7445,8 +7669,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7534,97 +7761,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-454000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-169000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-429000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>71000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-541000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-112000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-132000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-264000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-347000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-776000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1572000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-763000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-357000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-185000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-101000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-267000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-121000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-139000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-267000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-557000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>138000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-259000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-173000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-239000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7656,8 +7889,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7668,16 +7902,16 @@
         <v>-54000</v>
       </c>
       <c r="F96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-50000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-51000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-50000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-51000</v>
       </c>
       <c r="J96" s="3">
         <v>-51000</v>
@@ -7689,19 +7923,19 @@
         <v>-51000</v>
       </c>
       <c r="M96" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="N96" s="3">
         <v>-50000</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-45000</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-45000</v>
@@ -7713,26 +7947,26 @@
         <v>-45000</v>
       </c>
       <c r="U96" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="V96" s="3">
         <v>-46000</v>
       </c>
       <c r="W96" s="3">
-        <v>-38000</v>
+        <v>-46000</v>
       </c>
       <c r="X96" s="3">
         <v>-38000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-39000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
@@ -7745,8 +7979,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7834,8 +8071,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7923,8 +8163,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8012,271 +8255,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-131000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-99000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-261000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-70000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-239000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-274000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-93000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-101000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-86000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2203000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-52000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-112000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-109000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-146000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-113000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-132000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-135000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-51000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-185000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-99000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-42000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>342000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-39000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-45000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-34000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>23000</v>
       </c>
       <c r="O101" s="3">
         <v>23000</v>
       </c>
       <c r="P101" s="3">
+        <v>23000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-26000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-17000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-28000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-51000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>26000</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>32000</v>
       </c>
       <c r="AA101" s="3">
         <v>32000</v>
       </c>
       <c r="AB101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AC101" s="3">
         <v>3000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>6000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E102" s="3">
         <v>78000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-81000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>64000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-142000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>125000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-74000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-624000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1101000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-376000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-309000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>68000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>49000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-68000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>73000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-57000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>259000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>174000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>585000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-182000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>189000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>135000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>242000</v>
       </c>
     </row>
